--- a/tools/categories/categorymap.xlsx
+++ b/tools/categories/categorymap.xlsx
@@ -4,16 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="50460" windowHeight="28360" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30220" windowHeight="25940" tabRatio="549" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="Map_Candi_Foursquare" sheetId="8" r:id="rId1"/>
-    <sheet name="Map_Factual_Foursquare" sheetId="1" r:id="rId2"/>
-    <sheet name="Map_Google_Foursquare" sheetId="6" r:id="rId3"/>
-    <sheet name="Foursquare" sheetId="3" r:id="rId4"/>
-    <sheet name="Factual" sheetId="4" r:id="rId5"/>
-    <sheet name="Google" sheetId="5" r:id="rId6"/>
-    <sheet name="Candi" sheetId="7" r:id="rId7"/>
+    <sheet name="map_candi_foursquare" sheetId="8" r:id="rId1"/>
+    <sheet name="map_factual_foursquare" sheetId="1" r:id="rId2"/>
+    <sheet name="map_google_foursquare" sheetId="6" r:id="rId3"/>
+    <sheet name="foursquare" sheetId="3" r:id="rId4"/>
+    <sheet name="factual" sheetId="4" r:id="rId5"/>
+    <sheet name="google" sheetId="5" r:id="rId6"/>
+    <sheet name="candi" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4921" uniqueCount="1592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5017" uniqueCount="1540">
   <si>
     <t>4fceea171983d5d06c3e9823</t>
   </si>
@@ -4645,169 +4645,13 @@
   </si>
   <si>
     <t>video_games</t>
-  </si>
-  <si>
-    <t>4bf58dd8d48988d1ff931737</t>
-  </si>
-  <si>
-    <t>4bf58dd8d48988d1ff931738</t>
-  </si>
-  <si>
-    <t>4bf58dd8d48988d1ff931739</t>
-  </si>
-  <si>
-    <t>4bf58dd8d48988d1ff931740</t>
-  </si>
-  <si>
-    <t>4bf58dd8d48988d1ff931741</t>
-  </si>
-  <si>
-    <t>4bf58dd8d48988d1ff931742</t>
-  </si>
-  <si>
-    <t>4bf58dd8d48988d1ff931743</t>
-  </si>
-  <si>
-    <t>4bf58dd8d48988d1ff931744</t>
-  </si>
-  <si>
-    <t>4bf58dd8d48988d1ff931745</t>
-  </si>
-  <si>
-    <t>4bf58dd8d48988d1ff931746</t>
-  </si>
-  <si>
-    <t>4bf58dd8d48988d1ff931747</t>
-  </si>
-  <si>
-    <t>4bf58dd8d48988d1ff931748</t>
-  </si>
-  <si>
-    <t>4bf58dd8d48988d1ff931749</t>
-  </si>
-  <si>
-    <t>4bf58dd8d48988d1ff931750</t>
-  </si>
-  <si>
-    <t>4bf58dd8d48988d1ff931751</t>
-  </si>
-  <si>
-    <t>4bf58dd8d48988d1ff931752</t>
-  </si>
-  <si>
-    <t>4bf58dd8d48988d1ff931753</t>
-  </si>
-  <si>
-    <t>4bf58dd8d48988d1ff931754</t>
-  </si>
-  <si>
-    <t>4bf58dd8d48988d1ff931755</t>
-  </si>
-  <si>
-    <t>4bf58dd8d48988d1ff931756</t>
-  </si>
-  <si>
-    <t>4bf58dd8d48988d1ff931757</t>
-  </si>
-  <si>
-    <t>4bf58dd8d48988d1ff931758</t>
-  </si>
-  <si>
-    <t>4bf58dd8d48988d1ff931759</t>
-  </si>
-  <si>
-    <t>4bf58dd8d48988d1ff931760</t>
-  </si>
-  <si>
-    <t>4bf58dd8d48988d1ff931761</t>
-  </si>
-  <si>
-    <t>4bf58dd8d48988d1ff931762</t>
-  </si>
-  <si>
-    <t>4bf58dd8d48988d1ff931763</t>
-  </si>
-  <si>
-    <t>4bf58dd8d48988d1ff931764</t>
-  </si>
-  <si>
-    <t>4bf58dd8d48988d1ff931765</t>
-  </si>
-  <si>
-    <t>4d4b7105d754a06375d81260</t>
-  </si>
-  <si>
-    <t>4d4b7105d754a06375d81261</t>
-  </si>
-  <si>
-    <t>4d4b7105d754a06375d81262</t>
-  </si>
-  <si>
-    <t>4d4b7105d754a06375d81263</t>
-  </si>
-  <si>
-    <t>4d4b7105d754a06375d81264</t>
-  </si>
-  <si>
-    <t>4d4b7105d754a06375d81265</t>
-  </si>
-  <si>
-    <t>4d4b7105d754a06375d81266</t>
-  </si>
-  <si>
-    <t>4d4b7105d754a06375d81267</t>
-  </si>
-  <si>
-    <t>4d4b7105d754a06375d81268</t>
-  </si>
-  <si>
-    <t>4d4b7105d754a06375d81269</t>
-  </si>
-  <si>
-    <t>4d4b7105d754a06375d81270</t>
-  </si>
-  <si>
-    <t>4d4b7105d754a06375d81271</t>
-  </si>
-  <si>
-    <t>4d4b7105d754a06375d81272</t>
-  </si>
-  <si>
-    <t>4d4b7105d754a06375d81273</t>
-  </si>
-  <si>
-    <t>4d4b7105d754a06375d81274</t>
-  </si>
-  <si>
-    <t>4d4b7105d754a06375d81275</t>
-  </si>
-  <si>
-    <t>4d4b7105d754a06375d81276</t>
-  </si>
-  <si>
-    <t>4d4b7105d754a06375d81277</t>
-  </si>
-  <si>
-    <t>4d4b7105d754a06375d81278</t>
-  </si>
-  <si>
-    <t>4d4b7105d754a06375d81279</t>
-  </si>
-  <si>
-    <t>4d4b7105d754a06375d81280</t>
-  </si>
-  <si>
-    <t>4d4b7105d754a06375d81281</t>
-  </si>
-  <si>
-    <t>4d4b7105d754a06375d81282</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4843,6 +4687,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4861,7 +4712,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4879,15 +4730,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4896,6 +4758,11 @@
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4904,6 +4771,11 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5236,15 +5108,16 @@
   <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="29.1640625" customWidth="1"/>
+    <col min="3" max="3" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -5255,7 +5128,7 @@
         <v>1441</v>
       </c>
       <c r="C1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D1" t="s">
         <v>483</v>
@@ -5271,7 +5144,7 @@
       <c r="B2" t="s">
         <v>1442</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>574</v>
       </c>
       <c r="D2" t="s">
@@ -5289,7 +5162,7 @@
         <v>1443</v>
       </c>
       <c r="C3" t="s">
-        <v>1540</v>
+        <v>482</v>
       </c>
       <c r="D3" t="s">
         <v>483</v>
@@ -5306,7 +5179,7 @@
         <v>531</v>
       </c>
       <c r="C4" t="s">
-        <v>1541</v>
+        <v>482</v>
       </c>
       <c r="D4" t="s">
         <v>483</v>
@@ -5323,7 +5196,7 @@
         <v>1444</v>
       </c>
       <c r="C5" t="s">
-        <v>1542</v>
+        <v>482</v>
       </c>
       <c r="D5" t="s">
         <v>483</v>
@@ -5340,7 +5213,7 @@
         <v>1445</v>
       </c>
       <c r="C6" t="s">
-        <v>1543</v>
+        <v>482</v>
       </c>
       <c r="D6" t="s">
         <v>483</v>
@@ -5357,7 +5230,7 @@
         <v>535</v>
       </c>
       <c r="C7" t="s">
-        <v>1544</v>
+        <v>482</v>
       </c>
       <c r="D7" t="s">
         <v>483</v>
@@ -5374,7 +5247,7 @@
         <v>1446</v>
       </c>
       <c r="C8" t="s">
-        <v>1545</v>
+        <v>482</v>
       </c>
       <c r="D8" t="s">
         <v>483</v>
@@ -5391,7 +5264,7 @@
         <v>1447</v>
       </c>
       <c r="C9" t="s">
-        <v>1546</v>
+        <v>482</v>
       </c>
       <c r="D9" t="s">
         <v>483</v>
@@ -5408,7 +5281,7 @@
         <v>1448</v>
       </c>
       <c r="C10" t="s">
-        <v>1547</v>
+        <v>482</v>
       </c>
       <c r="D10" t="s">
         <v>483</v>
@@ -5425,7 +5298,7 @@
         <v>1449</v>
       </c>
       <c r="C11" t="s">
-        <v>1548</v>
+        <v>482</v>
       </c>
       <c r="D11" t="s">
         <v>483</v>
@@ -5442,7 +5315,7 @@
         <v>1450</v>
       </c>
       <c r="C12" t="s">
-        <v>1549</v>
+        <v>482</v>
       </c>
       <c r="D12" t="s">
         <v>483</v>
@@ -5459,7 +5332,7 @@
         <v>1451</v>
       </c>
       <c r="C13" t="s">
-        <v>1550</v>
+        <v>482</v>
       </c>
       <c r="D13" t="s">
         <v>483</v>
@@ -5476,7 +5349,7 @@
         <v>1452</v>
       </c>
       <c r="C14" t="s">
-        <v>1551</v>
+        <v>482</v>
       </c>
       <c r="D14" t="s">
         <v>483</v>
@@ -5493,7 +5366,7 @@
         <v>1453</v>
       </c>
       <c r="C15" t="s">
-        <v>1552</v>
+        <v>482</v>
       </c>
       <c r="D15" t="s">
         <v>483</v>
@@ -5510,7 +5383,7 @@
         <v>1454</v>
       </c>
       <c r="C16" t="s">
-        <v>1553</v>
+        <v>482</v>
       </c>
       <c r="D16" t="s">
         <v>483</v>
@@ -5527,7 +5400,7 @@
         <v>519</v>
       </c>
       <c r="C17" t="s">
-        <v>1554</v>
+        <v>482</v>
       </c>
       <c r="D17" t="s">
         <v>483</v>
@@ -5544,7 +5417,7 @@
         <v>1455</v>
       </c>
       <c r="C18" t="s">
-        <v>1555</v>
+        <v>482</v>
       </c>
       <c r="D18" t="s">
         <v>483</v>
@@ -5561,7 +5434,7 @@
         <v>355</v>
       </c>
       <c r="C19" t="s">
-        <v>1556</v>
+        <v>482</v>
       </c>
       <c r="D19" t="s">
         <v>483</v>
@@ -5578,7 +5451,7 @@
         <v>1456</v>
       </c>
       <c r="C20" t="s">
-        <v>1557</v>
+        <v>482</v>
       </c>
       <c r="D20" t="s">
         <v>483</v>
@@ -5595,7 +5468,7 @@
         <v>1457</v>
       </c>
       <c r="C21" t="s">
-        <v>1558</v>
+        <v>482</v>
       </c>
       <c r="D21" t="s">
         <v>483</v>
@@ -5612,7 +5485,7 @@
         <v>483</v>
       </c>
       <c r="C22" t="s">
-        <v>1559</v>
+        <v>482</v>
       </c>
       <c r="D22" t="s">
         <v>483</v>
@@ -5629,7 +5502,7 @@
         <v>1458</v>
       </c>
       <c r="C23" t="s">
-        <v>1560</v>
+        <v>482</v>
       </c>
       <c r="D23" t="s">
         <v>483</v>
@@ -5646,7 +5519,7 @@
         <v>541</v>
       </c>
       <c r="C24" t="s">
-        <v>1561</v>
+        <v>482</v>
       </c>
       <c r="D24" t="s">
         <v>483</v>
@@ -5663,7 +5536,7 @@
         <v>1459</v>
       </c>
       <c r="C25" t="s">
-        <v>1562</v>
+        <v>482</v>
       </c>
       <c r="D25" t="s">
         <v>483</v>
@@ -5680,7 +5553,7 @@
         <v>1460</v>
       </c>
       <c r="C26" t="s">
-        <v>1563</v>
+        <v>482</v>
       </c>
       <c r="D26" t="s">
         <v>483</v>
@@ -5697,7 +5570,7 @@
         <v>1461</v>
       </c>
       <c r="C27" t="s">
-        <v>1564</v>
+        <v>482</v>
       </c>
       <c r="D27" t="s">
         <v>483</v>
@@ -5714,7 +5587,7 @@
         <v>1462</v>
       </c>
       <c r="C28" t="s">
-        <v>1565</v>
+        <v>482</v>
       </c>
       <c r="D28" t="s">
         <v>483</v>
@@ -5731,7 +5604,7 @@
         <v>1463</v>
       </c>
       <c r="C29" t="s">
-        <v>1566</v>
+        <v>482</v>
       </c>
       <c r="D29" t="s">
         <v>483</v>
@@ -5748,7 +5621,7 @@
         <v>1464</v>
       </c>
       <c r="C30" t="s">
-        <v>1567</v>
+        <v>482</v>
       </c>
       <c r="D30" t="s">
         <v>483</v>
@@ -5765,7 +5638,7 @@
         <v>1465</v>
       </c>
       <c r="C31" t="s">
-        <v>1568</v>
+        <v>482</v>
       </c>
       <c r="D31" t="s">
         <v>483</v>
@@ -5799,7 +5672,7 @@
         <v>1467</v>
       </c>
       <c r="C33" t="s">
-        <v>1569</v>
+        <v>574</v>
       </c>
       <c r="D33" t="s">
         <v>575</v>
@@ -5816,7 +5689,7 @@
         <v>1468</v>
       </c>
       <c r="C34" t="s">
-        <v>1570</v>
+        <v>574</v>
       </c>
       <c r="D34" t="s">
         <v>575</v>
@@ -5833,7 +5706,7 @@
         <v>1469</v>
       </c>
       <c r="C35" t="s">
-        <v>1571</v>
+        <v>574</v>
       </c>
       <c r="D35" t="s">
         <v>575</v>
@@ -5850,7 +5723,7 @@
         <v>969</v>
       </c>
       <c r="C36" t="s">
-        <v>1572</v>
+        <v>574</v>
       </c>
       <c r="D36" t="s">
         <v>575</v>
@@ -5867,7 +5740,7 @@
         <v>1470</v>
       </c>
       <c r="C37" t="s">
-        <v>1573</v>
+        <v>574</v>
       </c>
       <c r="D37" t="s">
         <v>575</v>
@@ -5884,7 +5757,7 @@
         <v>862</v>
       </c>
       <c r="C38" t="s">
-        <v>1574</v>
+        <v>574</v>
       </c>
       <c r="D38" t="s">
         <v>575</v>
@@ -5901,7 +5774,7 @@
         <v>1471</v>
       </c>
       <c r="C39" t="s">
-        <v>1575</v>
+        <v>574</v>
       </c>
       <c r="D39" t="s">
         <v>575</v>
@@ -5918,7 +5791,7 @@
         <v>1472</v>
       </c>
       <c r="C40" t="s">
-        <v>1576</v>
+        <v>574</v>
       </c>
       <c r="D40" t="s">
         <v>575</v>
@@ -5935,7 +5808,7 @@
         <v>1473</v>
       </c>
       <c r="C41" t="s">
-        <v>1577</v>
+        <v>574</v>
       </c>
       <c r="D41" t="s">
         <v>575</v>
@@ -5952,7 +5825,7 @@
         <v>1474</v>
       </c>
       <c r="C42" t="s">
-        <v>1578</v>
+        <v>574</v>
       </c>
       <c r="D42" t="s">
         <v>575</v>
@@ -5969,7 +5842,7 @@
         <v>1475</v>
       </c>
       <c r="C43" t="s">
-        <v>1579</v>
+        <v>574</v>
       </c>
       <c r="D43" t="s">
         <v>575</v>
@@ -5986,7 +5859,7 @@
         <v>1476</v>
       </c>
       <c r="C44" t="s">
-        <v>1580</v>
+        <v>574</v>
       </c>
       <c r="D44" t="s">
         <v>575</v>
@@ -6003,7 +5876,7 @@
         <v>1477</v>
       </c>
       <c r="C45" t="s">
-        <v>1581</v>
+        <v>574</v>
       </c>
       <c r="D45" t="s">
         <v>575</v>
@@ -6020,7 +5893,7 @@
         <v>1478</v>
       </c>
       <c r="C46" t="s">
-        <v>1582</v>
+        <v>574</v>
       </c>
       <c r="D46" t="s">
         <v>575</v>
@@ -6037,7 +5910,7 @@
         <v>998</v>
       </c>
       <c r="C47" t="s">
-        <v>1583</v>
+        <v>574</v>
       </c>
       <c r="D47" t="s">
         <v>575</v>
@@ -6054,7 +5927,7 @@
         <v>1479</v>
       </c>
       <c r="C48" t="s">
-        <v>1584</v>
+        <v>574</v>
       </c>
       <c r="D48" t="s">
         <v>575</v>
@@ -6071,7 +5944,7 @@
         <v>1480</v>
       </c>
       <c r="C49" t="s">
-        <v>1585</v>
+        <v>574</v>
       </c>
       <c r="D49" t="s">
         <v>575</v>
@@ -6088,7 +5961,7 @@
         <v>1481</v>
       </c>
       <c r="C50" t="s">
-        <v>1586</v>
+        <v>574</v>
       </c>
       <c r="D50" t="s">
         <v>575</v>
@@ -6105,7 +5978,7 @@
         <v>1482</v>
       </c>
       <c r="C51" t="s">
-        <v>1587</v>
+        <v>574</v>
       </c>
       <c r="D51" t="s">
         <v>575</v>
@@ -6122,7 +5995,7 @@
         <v>1205</v>
       </c>
       <c r="C52" t="s">
-        <v>1588</v>
+        <v>574</v>
       </c>
       <c r="D52" t="s">
         <v>575</v>
@@ -6139,7 +6012,7 @@
         <v>1483</v>
       </c>
       <c r="C53" t="s">
-        <v>1589</v>
+        <v>574</v>
       </c>
       <c r="D53" t="s">
         <v>575</v>
@@ -6156,7 +6029,7 @@
         <v>972</v>
       </c>
       <c r="C54" t="s">
-        <v>1590</v>
+        <v>574</v>
       </c>
       <c r="D54" t="s">
         <v>575</v>
@@ -6173,7 +6046,7 @@
         <v>1484</v>
       </c>
       <c r="C55" t="s">
-        <v>1591</v>
+        <v>574</v>
       </c>
       <c r="D55" t="s">
         <v>575</v>
@@ -13687,1360 +13560,1651 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D96"/>
+  <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="27.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="30.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
         <v>1277</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>1273</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
         <v>1278</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>778</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>779</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
         <v>1279</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>1273</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>1280</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
         <v>1281</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" s="4" t="s">
         <v>1282</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>1273</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7" s="4" t="s">
         <v>1283</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8" s="4" t="s">
         <v>1284</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
         <v>1285</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
         <v>1286</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>738</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>1273</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5">
       <c r="A11" s="4" t="s">
         <v>1287</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5">
       <c r="A12" s="4" t="s">
         <v>1288</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
         <v>1289</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:5">
       <c r="A14" s="4" t="s">
         <v>1290</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>784</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>785</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5">
       <c r="A15" s="4" t="s">
         <v>1291</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>1273</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5">
       <c r="A16" s="4" t="s">
         <v>1292</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5">
       <c r="A17" s="4" t="s">
         <v>1293</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:5">
       <c r="A18" s="4" t="s">
         <v>1294</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>816</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>817</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:5">
       <c r="A19" s="4" t="s">
         <v>1295</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:5">
       <c r="A20" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:5">
       <c r="A21" s="4" t="s">
         <v>1297</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:5">
       <c r="A22" s="4" t="s">
         <v>1298</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:5">
       <c r="A23" s="4" t="s">
         <v>1299</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:5">
       <c r="A24" s="4" t="s">
         <v>1300</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="E24" s="4" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:5">
       <c r="A25" s="4" t="s">
         <v>1301</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:5">
       <c r="A26" s="4" t="s">
         <v>1302</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:5">
       <c r="A27" s="4" t="s">
         <v>1303</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="E27" s="4" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:5">
       <c r="A28" s="4" t="s">
         <v>1304</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="E28" s="4" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:5">
       <c r="A29" s="4" t="s">
         <v>1305</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="E29" s="4" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:5">
       <c r="A30" s="4" t="s">
         <v>1306</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="E30" s="4" t="s">
         <v>1273</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:5">
       <c r="A31" s="4" t="s">
         <v>1307</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="E31" s="4" t="s">
         <v>1275</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:5">
       <c r="A32" s="4" t="s">
         <v>1308</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="E32" s="4" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:5">
       <c r="A33" s="4" t="s">
         <v>1309</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>786</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>787</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="E33" s="4" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:5">
       <c r="A34" s="4" t="s">
         <v>1310</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="E34" s="4" t="s">
         <v>1275</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:5">
       <c r="A35" s="4" t="s">
         <v>1311</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="E35" s="4" t="s">
         <v>1273</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:5">
       <c r="A36" s="4" t="s">
         <v>1312</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="E36" s="4" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:5">
       <c r="A37" s="4" t="s">
         <v>1313</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="E37" s="4" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:5">
       <c r="A38" s="4" t="s">
         <v>1314</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="E38" s="4" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:5">
       <c r="A39" s="4" t="s">
         <v>1315</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="D39" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="E39" s="4" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:5">
       <c r="A40" s="4" t="s">
         <v>1316</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="E40" s="4" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:5">
       <c r="A41" s="4" t="s">
         <v>1317</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="E41" s="4" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:5">
       <c r="A42" s="4" t="s">
         <v>1318</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="E42" s="4" t="s">
         <v>1275</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:5">
       <c r="A43" s="4" t="s">
         <v>1319</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="D43" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="E43" s="4" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:5">
       <c r="A44" s="4" t="s">
         <v>1320</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="D44" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="E44" s="4" t="s">
         <v>1273</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:5">
       <c r="A45" s="4" t="s">
         <v>1321</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>738</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="E45" s="4" t="s">
         <v>1273</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:5">
       <c r="A46" s="4" t="s">
         <v>1322</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>696</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="D46" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="E46" s="4" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:5">
       <c r="A47" s="4" t="s">
         <v>1323</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="E47" s="4" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:5">
       <c r="A48" s="4" t="s">
         <v>1324</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="D48" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="E48" s="4" t="s">
         <v>1273</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:5">
       <c r="A49" s="4" t="s">
         <v>1325</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="2" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="D49" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="E49" s="4" t="s">
         <v>1273</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:5">
       <c r="A50" s="4" t="s">
         <v>1326</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="D50" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="E50" s="4" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:5">
       <c r="A51" s="4" t="s">
         <v>1327</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="2" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="D51" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="E51" s="4" t="s">
         <v>1275</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:5">
       <c r="A52" s="4" t="s">
         <v>1328</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="D52" s="3" t="s">
         <v>705</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="E52" s="4" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:5">
       <c r="A53" s="4" t="s">
         <v>1329</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="2" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="D53" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="E53" s="4" t="s">
         <v>1273</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:5">
       <c r="A54" s="4" t="s">
         <v>1330</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="2" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="D54" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="E54" s="4" t="s">
         <v>1273</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:5">
       <c r="A55" s="4" t="s">
         <v>1331</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="D55" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="E55" s="4" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:5">
       <c r="A56" s="4" t="s">
         <v>1332</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="D56" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="E56" s="4" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:5">
       <c r="A57" s="4" t="s">
         <v>1333</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="2" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="D57" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="E57" s="4" t="s">
         <v>1273</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:5">
       <c r="A58" s="4" t="s">
         <v>1334</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="D58" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="E58" s="4" t="s">
         <v>1275</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:5">
       <c r="A59" s="4" t="s">
         <v>1335</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="2" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>810</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="D59" s="3" t="s">
         <v>811</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="E59" s="4" t="s">
         <v>1273</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:5">
       <c r="A60" s="4" t="s">
         <v>1336</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="2" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="D60" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="E60" s="4" t="s">
         <v>1275</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:5">
       <c r="A61" s="4" t="s">
         <v>1337</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="2" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="D61" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="E61" s="4" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:5">
       <c r="A62" s="4" t="s">
         <v>1338</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="D62" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="E62" s="4" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:5">
       <c r="A63" s="4" t="s">
         <v>1339</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="2" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="D63" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="E63" s="4" t="s">
         <v>1273</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:5">
       <c r="A64" s="4" t="s">
         <v>1340</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="D64" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="E64" s="4" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:5">
       <c r="A65" s="4" t="s">
         <v>1341</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="2" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="D65" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="E65" s="4" t="s">
         <v>1275</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:5">
       <c r="A66" s="4" t="s">
         <v>1342</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="D66" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="E66" s="4" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:5">
       <c r="A67" s="4" t="s">
         <v>1343</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="2" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="D67" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="E67" s="4" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:5">
       <c r="A68" s="4" t="s">
         <v>1344</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="D68" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="E68" s="4" t="s">
         <v>1275</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:5">
       <c r="A69" s="4" t="s">
         <v>1345</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="D69" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="E69" s="4" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:5">
       <c r="A70" s="4" t="s">
         <v>1346</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="D70" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="E70" s="4" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:5">
       <c r="A71" s="4" t="s">
         <v>1347</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="D71" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="E71" s="4" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:5">
       <c r="A72" s="4" t="s">
         <v>1348</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="2" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="D72" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="E72" s="4" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:5">
       <c r="A73" s="4" t="s">
         <v>1349</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="D73" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="E73" s="4" t="s">
         <v>1275</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:5">
       <c r="A74" s="4" t="s">
         <v>1350</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="2" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="D74" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="E74" s="4" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:5">
       <c r="A75" s="4" t="s">
         <v>1351</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="D75" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="E75" s="4" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:5">
       <c r="A76" s="4" t="s">
         <v>1352</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="D76" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="E76" s="4" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:5">
       <c r="A77" s="4" t="s">
         <v>1353</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="D77" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="E77" s="4" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:5">
       <c r="A78" s="4" t="s">
         <v>1354</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="D78" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="E78" s="4" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:5">
       <c r="A79" s="4" t="s">
         <v>1355</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="D79" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="E79" s="4" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:5">
       <c r="A80" s="4" t="s">
         <v>1356</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>808</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="D80" s="3" t="s">
         <v>809</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="E80" s="4" t="s">
         <v>1275</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:5">
       <c r="A81" s="4" t="s">
         <v>1357</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="D81" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="E81" s="4" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:5">
       <c r="A82" s="4" t="s">
         <v>1358</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="D82" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="D82" s="4" t="s">
+      <c r="E82" s="4" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:5">
       <c r="A83" s="4" t="s">
         <v>1359</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="D83" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="E83" s="4" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:5">
       <c r="A84" s="4" t="s">
         <v>1360</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="D84" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="E84" s="4" t="s">
         <v>1273</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:5">
       <c r="A85" s="4" t="s">
         <v>1361</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C85" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="D85" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="D85" s="4" t="s">
+      <c r="E85" s="4" t="s">
         <v>1273</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:5">
       <c r="A86" s="4" t="s">
         <v>1362</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C86" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="D86" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D86" s="4" t="s">
+      <c r="E86" s="4" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:5">
       <c r="A87" s="4" t="s">
         <v>1363</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="2" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C87" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="D87" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="D87" s="4" t="s">
+      <c r="E87" s="4" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:5">
       <c r="A88" s="4" t="s">
         <v>1364</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="2" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C88" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="D88" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="D88" s="4" t="s">
+      <c r="E88" s="4" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:5">
       <c r="A89" s="4" t="s">
         <v>1365</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="2" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>822</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="D89" s="3" t="s">
         <v>823</v>
       </c>
-      <c r="D89" s="4" t="s">
+      <c r="E89" s="4" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:5">
       <c r="A90" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="D90" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="D90" s="4" t="s">
+      <c r="E90" s="4" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:5">
       <c r="A91" s="4" t="s">
         <v>1367</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="2" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>824</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="D91" s="3" t="s">
         <v>825</v>
       </c>
-      <c r="D91" s="4" t="s">
+      <c r="E91" s="4" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:5">
       <c r="A92" s="4" t="s">
         <v>1368</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="C92" s="3" t="s">
         <v>832</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="D92" s="3" t="s">
         <v>833</v>
       </c>
-      <c r="D92" s="4" t="s">
+      <c r="E92" s="4" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:5">
       <c r="A93" s="4" t="s">
         <v>1369</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="D93" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="D93" s="4" t="s">
+      <c r="E93" s="4" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:5">
       <c r="A94" s="4" t="s">
         <v>1370</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C94" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="D94" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D94" s="4" t="s">
+      <c r="E94" s="4" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:5">
       <c r="A95" s="4" t="s">
         <v>1371</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="2" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="D95" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="D95" s="4" t="s">
+      <c r="E95" s="4" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:5">
       <c r="A96" s="4" t="s">
         <v>1372</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="D96" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D96" s="4" t="s">
+      <c r="E96" s="4" t="s">
         <v>1272</v>
       </c>
     </row>
@@ -15059,8 +15223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D419"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A239" workbookViewId="0">
-      <selection activeCell="G309" sqref="G309"/>
+    <sheetView showRuler="0" topLeftCell="A207" workbookViewId="0">
+      <selection activeCell="A242" sqref="A242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -25764,7 +25928,7 @@
   <dimension ref="A1:B96"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -26557,7 +26721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
       <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>

--- a/tools/categories/categorymap.xlsx
+++ b/tools/categories/categorymap.xlsx
@@ -4,16 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30220" windowHeight="25940" tabRatio="549" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14980" tabRatio="654" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="map_candi_foursquare" sheetId="8" r:id="rId1"/>
-    <sheet name="map_factual_foursquare" sheetId="1" r:id="rId2"/>
-    <sheet name="map_google_foursquare" sheetId="6" r:id="rId3"/>
-    <sheet name="foursquare" sheetId="3" r:id="rId4"/>
-    <sheet name="factual" sheetId="4" r:id="rId5"/>
-    <sheet name="google" sheetId="5" r:id="rId6"/>
-    <sheet name="candi" sheetId="7" r:id="rId7"/>
+    <sheet name="map_candi_candi" sheetId="8" r:id="rId1"/>
+    <sheet name="map_factual_candi" sheetId="1" r:id="rId2"/>
+    <sheet name="map_google_candi" sheetId="6" r:id="rId3"/>
+    <sheet name="map_foursquare_candi" sheetId="9" r:id="rId4"/>
+    <sheet name="foursquare" sheetId="3" r:id="rId5"/>
+    <sheet name="factual" sheetId="4" r:id="rId6"/>
+    <sheet name="google" sheetId="5" r:id="rId7"/>
+    <sheet name="candi" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5017" uniqueCount="1540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6693" uniqueCount="1540">
   <si>
     <t>4fceea171983d5d06c3e9823</t>
   </si>
@@ -4712,8 +4713,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4749,7 +4752,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="29">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4763,6 +4766,7 @@
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4776,6 +4780,7 @@
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5107,7 +5112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
@@ -6070,7 +6075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E439"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A50" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A410" workbookViewId="0">
       <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
@@ -15223,7 +15228,5900 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D419"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A207" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A390" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" t="s">
+        <v>88</v>
+      </c>
+      <c r="D45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" t="s">
+        <v>94</v>
+      </c>
+      <c r="D48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" t="s">
+        <v>96</v>
+      </c>
+      <c r="D49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" t="s">
+        <v>98</v>
+      </c>
+      <c r="D50" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" t="s">
+        <v>100</v>
+      </c>
+      <c r="D51" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" t="s">
+        <v>102</v>
+      </c>
+      <c r="D52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" t="s">
+        <v>104</v>
+      </c>
+      <c r="D53" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54" t="s">
+        <v>106</v>
+      </c>
+      <c r="D54" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" t="s">
+        <v>108</v>
+      </c>
+      <c r="D55" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" t="s">
+        <v>110</v>
+      </c>
+      <c r="D56" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" t="s">
+        <v>112</v>
+      </c>
+      <c r="D57" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" t="s">
+        <v>115</v>
+      </c>
+      <c r="C58" t="s">
+        <v>114</v>
+      </c>
+      <c r="D58" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59" t="s">
+        <v>116</v>
+      </c>
+      <c r="D59" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" t="s">
+        <v>119</v>
+      </c>
+      <c r="C60" t="s">
+        <v>118</v>
+      </c>
+      <c r="D60" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" t="s">
+        <v>121</v>
+      </c>
+      <c r="C61" t="s">
+        <v>120</v>
+      </c>
+      <c r="D61" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" t="s">
+        <v>123</v>
+      </c>
+      <c r="C62" t="s">
+        <v>122</v>
+      </c>
+      <c r="D62" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" t="s">
+        <v>125</v>
+      </c>
+      <c r="C63" t="s">
+        <v>124</v>
+      </c>
+      <c r="D63" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" t="s">
+        <v>127</v>
+      </c>
+      <c r="C64" t="s">
+        <v>126</v>
+      </c>
+      <c r="D64" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" t="s">
+        <v>129</v>
+      </c>
+      <c r="C65" t="s">
+        <v>128</v>
+      </c>
+      <c r="D65" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" t="s">
+        <v>131</v>
+      </c>
+      <c r="C66" t="s">
+        <v>130</v>
+      </c>
+      <c r="D66" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" t="s">
+        <v>133</v>
+      </c>
+      <c r="C67" t="s">
+        <v>132</v>
+      </c>
+      <c r="D67" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" t="s">
+        <v>135</v>
+      </c>
+      <c r="C68" t="s">
+        <v>134</v>
+      </c>
+      <c r="D68" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" t="s">
+        <v>137</v>
+      </c>
+      <c r="C69" t="s">
+        <v>136</v>
+      </c>
+      <c r="D69" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" t="s">
+        <v>139</v>
+      </c>
+      <c r="C70" t="s">
+        <v>138</v>
+      </c>
+      <c r="D70" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" t="s">
+        <v>141</v>
+      </c>
+      <c r="C71" t="s">
+        <v>140</v>
+      </c>
+      <c r="D71" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" t="s">
+        <v>143</v>
+      </c>
+      <c r="C72" t="s">
+        <v>142</v>
+      </c>
+      <c r="D72" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" t="s">
+        <v>145</v>
+      </c>
+      <c r="C73" t="s">
+        <v>144</v>
+      </c>
+      <c r="D73" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>146</v>
+      </c>
+      <c r="B74" t="s">
+        <v>147</v>
+      </c>
+      <c r="C74" t="s">
+        <v>146</v>
+      </c>
+      <c r="D74" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>148</v>
+      </c>
+      <c r="B75" t="s">
+        <v>149</v>
+      </c>
+      <c r="C75" t="s">
+        <v>148</v>
+      </c>
+      <c r="D75" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76" t="s">
+        <v>151</v>
+      </c>
+      <c r="C76" t="s">
+        <v>150</v>
+      </c>
+      <c r="D76" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" t="s">
+        <v>153</v>
+      </c>
+      <c r="C77" t="s">
+        <v>152</v>
+      </c>
+      <c r="D77" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>154</v>
+      </c>
+      <c r="B78" t="s">
+        <v>155</v>
+      </c>
+      <c r="C78" t="s">
+        <v>154</v>
+      </c>
+      <c r="D78" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>156</v>
+      </c>
+      <c r="B79" t="s">
+        <v>157</v>
+      </c>
+      <c r="C79" t="s">
+        <v>156</v>
+      </c>
+      <c r="D79" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>158</v>
+      </c>
+      <c r="B80" t="s">
+        <v>159</v>
+      </c>
+      <c r="C80" t="s">
+        <v>158</v>
+      </c>
+      <c r="D80" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>160</v>
+      </c>
+      <c r="B81" t="s">
+        <v>161</v>
+      </c>
+      <c r="C81" t="s">
+        <v>160</v>
+      </c>
+      <c r="D81" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>162</v>
+      </c>
+      <c r="B82" t="s">
+        <v>163</v>
+      </c>
+      <c r="C82" t="s">
+        <v>162</v>
+      </c>
+      <c r="D82" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>164</v>
+      </c>
+      <c r="B83" t="s">
+        <v>165</v>
+      </c>
+      <c r="C83" t="s">
+        <v>164</v>
+      </c>
+      <c r="D83" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>166</v>
+      </c>
+      <c r="B84" t="s">
+        <v>167</v>
+      </c>
+      <c r="C84" t="s">
+        <v>166</v>
+      </c>
+      <c r="D84" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>168</v>
+      </c>
+      <c r="B85" t="s">
+        <v>169</v>
+      </c>
+      <c r="C85" t="s">
+        <v>168</v>
+      </c>
+      <c r="D85" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86" t="s">
+        <v>171</v>
+      </c>
+      <c r="C86" t="s">
+        <v>170</v>
+      </c>
+      <c r="D86" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>172</v>
+      </c>
+      <c r="B87" t="s">
+        <v>173</v>
+      </c>
+      <c r="C87" t="s">
+        <v>172</v>
+      </c>
+      <c r="D87" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>174</v>
+      </c>
+      <c r="B88" t="s">
+        <v>175</v>
+      </c>
+      <c r="C88" t="s">
+        <v>174</v>
+      </c>
+      <c r="D88" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>176</v>
+      </c>
+      <c r="B89" t="s">
+        <v>177</v>
+      </c>
+      <c r="C89" t="s">
+        <v>176</v>
+      </c>
+      <c r="D89" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>178</v>
+      </c>
+      <c r="B90" t="s">
+        <v>179</v>
+      </c>
+      <c r="C90" t="s">
+        <v>178</v>
+      </c>
+      <c r="D90" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>180</v>
+      </c>
+      <c r="B91" t="s">
+        <v>181</v>
+      </c>
+      <c r="C91" t="s">
+        <v>180</v>
+      </c>
+      <c r="D91" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>182</v>
+      </c>
+      <c r="B92" t="s">
+        <v>183</v>
+      </c>
+      <c r="C92" t="s">
+        <v>182</v>
+      </c>
+      <c r="D92" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>184</v>
+      </c>
+      <c r="B93" t="s">
+        <v>185</v>
+      </c>
+      <c r="C93" t="s">
+        <v>184</v>
+      </c>
+      <c r="D93" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>186</v>
+      </c>
+      <c r="B94" t="s">
+        <v>187</v>
+      </c>
+      <c r="C94" t="s">
+        <v>186</v>
+      </c>
+      <c r="D94" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>188</v>
+      </c>
+      <c r="B95" t="s">
+        <v>189</v>
+      </c>
+      <c r="C95" t="s">
+        <v>188</v>
+      </c>
+      <c r="D95" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>190</v>
+      </c>
+      <c r="B96" t="s">
+        <v>191</v>
+      </c>
+      <c r="C96" t="s">
+        <v>190</v>
+      </c>
+      <c r="D96" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>192</v>
+      </c>
+      <c r="B97" t="s">
+        <v>193</v>
+      </c>
+      <c r="C97" t="s">
+        <v>192</v>
+      </c>
+      <c r="D97" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>194</v>
+      </c>
+      <c r="B98" t="s">
+        <v>195</v>
+      </c>
+      <c r="C98" t="s">
+        <v>194</v>
+      </c>
+      <c r="D98" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>196</v>
+      </c>
+      <c r="B99" t="s">
+        <v>197</v>
+      </c>
+      <c r="C99" t="s">
+        <v>196</v>
+      </c>
+      <c r="D99" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>198</v>
+      </c>
+      <c r="B100" t="s">
+        <v>199</v>
+      </c>
+      <c r="C100" t="s">
+        <v>198</v>
+      </c>
+      <c r="D100" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>200</v>
+      </c>
+      <c r="B101" t="s">
+        <v>201</v>
+      </c>
+      <c r="C101" t="s">
+        <v>200</v>
+      </c>
+      <c r="D101" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>202</v>
+      </c>
+      <c r="B102" t="s">
+        <v>203</v>
+      </c>
+      <c r="C102" t="s">
+        <v>202</v>
+      </c>
+      <c r="D102" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>204</v>
+      </c>
+      <c r="B103" t="s">
+        <v>205</v>
+      </c>
+      <c r="C103" t="s">
+        <v>204</v>
+      </c>
+      <c r="D103" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>206</v>
+      </c>
+      <c r="B104" t="s">
+        <v>207</v>
+      </c>
+      <c r="C104" t="s">
+        <v>206</v>
+      </c>
+      <c r="D104" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>208</v>
+      </c>
+      <c r="B105" t="s">
+        <v>209</v>
+      </c>
+      <c r="C105" t="s">
+        <v>208</v>
+      </c>
+      <c r="D105" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>210</v>
+      </c>
+      <c r="B106" t="s">
+        <v>211</v>
+      </c>
+      <c r="C106" t="s">
+        <v>210</v>
+      </c>
+      <c r="D106" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>212</v>
+      </c>
+      <c r="B107" t="s">
+        <v>213</v>
+      </c>
+      <c r="C107" t="s">
+        <v>212</v>
+      </c>
+      <c r="D107" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>214</v>
+      </c>
+      <c r="B108" t="s">
+        <v>215</v>
+      </c>
+      <c r="C108" t="s">
+        <v>214</v>
+      </c>
+      <c r="D108" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>216</v>
+      </c>
+      <c r="B109" t="s">
+        <v>217</v>
+      </c>
+      <c r="C109" t="s">
+        <v>216</v>
+      </c>
+      <c r="D109" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>218</v>
+      </c>
+      <c r="B110" t="s">
+        <v>219</v>
+      </c>
+      <c r="C110" t="s">
+        <v>218</v>
+      </c>
+      <c r="D110" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>220</v>
+      </c>
+      <c r="B111" t="s">
+        <v>221</v>
+      </c>
+      <c r="C111" t="s">
+        <v>220</v>
+      </c>
+      <c r="D111" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>222</v>
+      </c>
+      <c r="B112" t="s">
+        <v>223</v>
+      </c>
+      <c r="C112" t="s">
+        <v>222</v>
+      </c>
+      <c r="D112" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>224</v>
+      </c>
+      <c r="B113" t="s">
+        <v>225</v>
+      </c>
+      <c r="C113" t="s">
+        <v>224</v>
+      </c>
+      <c r="D113" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>226</v>
+      </c>
+      <c r="B114" t="s">
+        <v>227</v>
+      </c>
+      <c r="C114" t="s">
+        <v>226</v>
+      </c>
+      <c r="D114" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>228</v>
+      </c>
+      <c r="B115" t="s">
+        <v>229</v>
+      </c>
+      <c r="C115" t="s">
+        <v>228</v>
+      </c>
+      <c r="D115" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>230</v>
+      </c>
+      <c r="B116" t="s">
+        <v>231</v>
+      </c>
+      <c r="C116" t="s">
+        <v>230</v>
+      </c>
+      <c r="D116" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>232</v>
+      </c>
+      <c r="B117" t="s">
+        <v>233</v>
+      </c>
+      <c r="C117" t="s">
+        <v>232</v>
+      </c>
+      <c r="D117" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>234</v>
+      </c>
+      <c r="B118" t="s">
+        <v>235</v>
+      </c>
+      <c r="C118" t="s">
+        <v>234</v>
+      </c>
+      <c r="D118" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>236</v>
+      </c>
+      <c r="B119" t="s">
+        <v>237</v>
+      </c>
+      <c r="C119" t="s">
+        <v>236</v>
+      </c>
+      <c r="D119" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>238</v>
+      </c>
+      <c r="B120" t="s">
+        <v>239</v>
+      </c>
+      <c r="C120" t="s">
+        <v>238</v>
+      </c>
+      <c r="D120" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>240</v>
+      </c>
+      <c r="B121" t="s">
+        <v>241</v>
+      </c>
+      <c r="C121" t="s">
+        <v>240</v>
+      </c>
+      <c r="D121" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>242</v>
+      </c>
+      <c r="B122" t="s">
+        <v>243</v>
+      </c>
+      <c r="C122" t="s">
+        <v>242</v>
+      </c>
+      <c r="D122" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>244</v>
+      </c>
+      <c r="B123" t="s">
+        <v>245</v>
+      </c>
+      <c r="C123" t="s">
+        <v>244</v>
+      </c>
+      <c r="D123" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>246</v>
+      </c>
+      <c r="B124" t="s">
+        <v>247</v>
+      </c>
+      <c r="C124" t="s">
+        <v>246</v>
+      </c>
+      <c r="D124" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>248</v>
+      </c>
+      <c r="B125" t="s">
+        <v>249</v>
+      </c>
+      <c r="C125" t="s">
+        <v>248</v>
+      </c>
+      <c r="D125" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>250</v>
+      </c>
+      <c r="B126" t="s">
+        <v>251</v>
+      </c>
+      <c r="C126" t="s">
+        <v>250</v>
+      </c>
+      <c r="D126" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>252</v>
+      </c>
+      <c r="B127" t="s">
+        <v>253</v>
+      </c>
+      <c r="C127" t="s">
+        <v>252</v>
+      </c>
+      <c r="D127" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>254</v>
+      </c>
+      <c r="B128" t="s">
+        <v>255</v>
+      </c>
+      <c r="C128" t="s">
+        <v>254</v>
+      </c>
+      <c r="D128" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>256</v>
+      </c>
+      <c r="B129" t="s">
+        <v>257</v>
+      </c>
+      <c r="C129" t="s">
+        <v>256</v>
+      </c>
+      <c r="D129" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>258</v>
+      </c>
+      <c r="B130" t="s">
+        <v>259</v>
+      </c>
+      <c r="C130" t="s">
+        <v>258</v>
+      </c>
+      <c r="D130" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>260</v>
+      </c>
+      <c r="B131" t="s">
+        <v>261</v>
+      </c>
+      <c r="C131" t="s">
+        <v>260</v>
+      </c>
+      <c r="D131" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>262</v>
+      </c>
+      <c r="B132" t="s">
+        <v>263</v>
+      </c>
+      <c r="C132" t="s">
+        <v>262</v>
+      </c>
+      <c r="D132" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>264</v>
+      </c>
+      <c r="B133" t="s">
+        <v>265</v>
+      </c>
+      <c r="C133" t="s">
+        <v>264</v>
+      </c>
+      <c r="D133" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>266</v>
+      </c>
+      <c r="B134" t="s">
+        <v>267</v>
+      </c>
+      <c r="C134" t="s">
+        <v>266</v>
+      </c>
+      <c r="D134" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>268</v>
+      </c>
+      <c r="B135" t="s">
+        <v>269</v>
+      </c>
+      <c r="C135" t="s">
+        <v>268</v>
+      </c>
+      <c r="D135" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>270</v>
+      </c>
+      <c r="B136" t="s">
+        <v>271</v>
+      </c>
+      <c r="C136" t="s">
+        <v>270</v>
+      </c>
+      <c r="D136" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>272</v>
+      </c>
+      <c r="B137" t="s">
+        <v>273</v>
+      </c>
+      <c r="C137" t="s">
+        <v>272</v>
+      </c>
+      <c r="D137" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>274</v>
+      </c>
+      <c r="B138" t="s">
+        <v>275</v>
+      </c>
+      <c r="C138" t="s">
+        <v>274</v>
+      </c>
+      <c r="D138" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>276</v>
+      </c>
+      <c r="B139" t="s">
+        <v>277</v>
+      </c>
+      <c r="C139" t="s">
+        <v>276</v>
+      </c>
+      <c r="D139" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>278</v>
+      </c>
+      <c r="B140" t="s">
+        <v>279</v>
+      </c>
+      <c r="C140" t="s">
+        <v>278</v>
+      </c>
+      <c r="D140" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>280</v>
+      </c>
+      <c r="B141" t="s">
+        <v>281</v>
+      </c>
+      <c r="C141" t="s">
+        <v>280</v>
+      </c>
+      <c r="D141" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>282</v>
+      </c>
+      <c r="B142" t="s">
+        <v>283</v>
+      </c>
+      <c r="C142" t="s">
+        <v>282</v>
+      </c>
+      <c r="D142" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>284</v>
+      </c>
+      <c r="B143" t="s">
+        <v>285</v>
+      </c>
+      <c r="C143" t="s">
+        <v>284</v>
+      </c>
+      <c r="D143" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>286</v>
+      </c>
+      <c r="B144" t="s">
+        <v>287</v>
+      </c>
+      <c r="C144" t="s">
+        <v>286</v>
+      </c>
+      <c r="D144" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>288</v>
+      </c>
+      <c r="B145" t="s">
+        <v>289</v>
+      </c>
+      <c r="C145" t="s">
+        <v>288</v>
+      </c>
+      <c r="D145" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>290</v>
+      </c>
+      <c r="B146" t="s">
+        <v>291</v>
+      </c>
+      <c r="C146" t="s">
+        <v>290</v>
+      </c>
+      <c r="D146" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>292</v>
+      </c>
+      <c r="B147" t="s">
+        <v>293</v>
+      </c>
+      <c r="C147" t="s">
+        <v>292</v>
+      </c>
+      <c r="D147" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>294</v>
+      </c>
+      <c r="B148" t="s">
+        <v>295</v>
+      </c>
+      <c r="C148" t="s">
+        <v>294</v>
+      </c>
+      <c r="D148" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>296</v>
+      </c>
+      <c r="B149" t="s">
+        <v>297</v>
+      </c>
+      <c r="C149" t="s">
+        <v>296</v>
+      </c>
+      <c r="D149" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>298</v>
+      </c>
+      <c r="B150" t="s">
+        <v>299</v>
+      </c>
+      <c r="C150" t="s">
+        <v>298</v>
+      </c>
+      <c r="D150" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>300</v>
+      </c>
+      <c r="B151" t="s">
+        <v>301</v>
+      </c>
+      <c r="C151" t="s">
+        <v>300</v>
+      </c>
+      <c r="D151" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>302</v>
+      </c>
+      <c r="B152" t="s">
+        <v>303</v>
+      </c>
+      <c r="C152" t="s">
+        <v>302</v>
+      </c>
+      <c r="D152" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>304</v>
+      </c>
+      <c r="B153" t="s">
+        <v>305</v>
+      </c>
+      <c r="C153" t="s">
+        <v>304</v>
+      </c>
+      <c r="D153" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>306</v>
+      </c>
+      <c r="B154" t="s">
+        <v>307</v>
+      </c>
+      <c r="C154" t="s">
+        <v>306</v>
+      </c>
+      <c r="D154" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>308</v>
+      </c>
+      <c r="B155" t="s">
+        <v>309</v>
+      </c>
+      <c r="C155" t="s">
+        <v>308</v>
+      </c>
+      <c r="D155" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>310</v>
+      </c>
+      <c r="B156" t="s">
+        <v>311</v>
+      </c>
+      <c r="C156" t="s">
+        <v>310</v>
+      </c>
+      <c r="D156" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>312</v>
+      </c>
+      <c r="B157" t="s">
+        <v>313</v>
+      </c>
+      <c r="C157" t="s">
+        <v>312</v>
+      </c>
+      <c r="D157" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>314</v>
+      </c>
+      <c r="B158" t="s">
+        <v>315</v>
+      </c>
+      <c r="C158" t="s">
+        <v>314</v>
+      </c>
+      <c r="D158" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>316</v>
+      </c>
+      <c r="B159" t="s">
+        <v>317</v>
+      </c>
+      <c r="C159" t="s">
+        <v>316</v>
+      </c>
+      <c r="D159" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>318</v>
+      </c>
+      <c r="B160" t="s">
+        <v>319</v>
+      </c>
+      <c r="C160" t="s">
+        <v>318</v>
+      </c>
+      <c r="D160" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>320</v>
+      </c>
+      <c r="B161" t="s">
+        <v>321</v>
+      </c>
+      <c r="C161" t="s">
+        <v>320</v>
+      </c>
+      <c r="D161" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>322</v>
+      </c>
+      <c r="B162" t="s">
+        <v>323</v>
+      </c>
+      <c r="C162" t="s">
+        <v>322</v>
+      </c>
+      <c r="D162" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>324</v>
+      </c>
+      <c r="B163" t="s">
+        <v>325</v>
+      </c>
+      <c r="C163" t="s">
+        <v>324</v>
+      </c>
+      <c r="D163" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>326</v>
+      </c>
+      <c r="B164" t="s">
+        <v>327</v>
+      </c>
+      <c r="C164" t="s">
+        <v>326</v>
+      </c>
+      <c r="D164" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>328</v>
+      </c>
+      <c r="B165" t="s">
+        <v>329</v>
+      </c>
+      <c r="C165" t="s">
+        <v>328</v>
+      </c>
+      <c r="D165" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>330</v>
+      </c>
+      <c r="B166" t="s">
+        <v>331</v>
+      </c>
+      <c r="C166" t="s">
+        <v>330</v>
+      </c>
+      <c r="D166" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>332</v>
+      </c>
+      <c r="B167" t="s">
+        <v>333</v>
+      </c>
+      <c r="C167" t="s">
+        <v>332</v>
+      </c>
+      <c r="D167" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>334</v>
+      </c>
+      <c r="B168" t="s">
+        <v>335</v>
+      </c>
+      <c r="C168" t="s">
+        <v>334</v>
+      </c>
+      <c r="D168" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>336</v>
+      </c>
+      <c r="B169" t="s">
+        <v>337</v>
+      </c>
+      <c r="C169" t="s">
+        <v>336</v>
+      </c>
+      <c r="D169" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>338</v>
+      </c>
+      <c r="B170" t="s">
+        <v>339</v>
+      </c>
+      <c r="C170" t="s">
+        <v>338</v>
+      </c>
+      <c r="D170" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>340</v>
+      </c>
+      <c r="B171" t="s">
+        <v>341</v>
+      </c>
+      <c r="C171" t="s">
+        <v>340</v>
+      </c>
+      <c r="D171" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>342</v>
+      </c>
+      <c r="B172" t="s">
+        <v>343</v>
+      </c>
+      <c r="C172" t="s">
+        <v>342</v>
+      </c>
+      <c r="D172" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>344</v>
+      </c>
+      <c r="B173" t="s">
+        <v>345</v>
+      </c>
+      <c r="C173" t="s">
+        <v>344</v>
+      </c>
+      <c r="D173" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>346</v>
+      </c>
+      <c r="B174" t="s">
+        <v>347</v>
+      </c>
+      <c r="C174" t="s">
+        <v>346</v>
+      </c>
+      <c r="D174" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>348</v>
+      </c>
+      <c r="B175" t="s">
+        <v>349</v>
+      </c>
+      <c r="C175" t="s">
+        <v>348</v>
+      </c>
+      <c r="D175" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
+        <v>350</v>
+      </c>
+      <c r="B176" t="s">
+        <v>351</v>
+      </c>
+      <c r="C176" t="s">
+        <v>350</v>
+      </c>
+      <c r="D176" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
+        <v>352</v>
+      </c>
+      <c r="B177" t="s">
+        <v>353</v>
+      </c>
+      <c r="C177" t="s">
+        <v>352</v>
+      </c>
+      <c r="D177" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" t="s">
+        <v>354</v>
+      </c>
+      <c r="B178" t="s">
+        <v>355</v>
+      </c>
+      <c r="C178" t="s">
+        <v>354</v>
+      </c>
+      <c r="D178" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" t="s">
+        <v>356</v>
+      </c>
+      <c r="B179" t="s">
+        <v>357</v>
+      </c>
+      <c r="C179" t="s">
+        <v>356</v>
+      </c>
+      <c r="D179" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" t="s">
+        <v>358</v>
+      </c>
+      <c r="B180" t="s">
+        <v>359</v>
+      </c>
+      <c r="C180" t="s">
+        <v>358</v>
+      </c>
+      <c r="D180" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" t="s">
+        <v>360</v>
+      </c>
+      <c r="B181" t="s">
+        <v>361</v>
+      </c>
+      <c r="C181" t="s">
+        <v>360</v>
+      </c>
+      <c r="D181" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" t="s">
+        <v>362</v>
+      </c>
+      <c r="B182" t="s">
+        <v>363</v>
+      </c>
+      <c r="C182" t="s">
+        <v>362</v>
+      </c>
+      <c r="D182" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" t="s">
+        <v>364</v>
+      </c>
+      <c r="B183" t="s">
+        <v>365</v>
+      </c>
+      <c r="C183" t="s">
+        <v>364</v>
+      </c>
+      <c r="D183" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" t="s">
+        <v>366</v>
+      </c>
+      <c r="B184" t="s">
+        <v>367</v>
+      </c>
+      <c r="C184" t="s">
+        <v>366</v>
+      </c>
+      <c r="D184" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" t="s">
+        <v>368</v>
+      </c>
+      <c r="B185" t="s">
+        <v>369</v>
+      </c>
+      <c r="C185" t="s">
+        <v>368</v>
+      </c>
+      <c r="D185" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" t="s">
+        <v>370</v>
+      </c>
+      <c r="B186" t="s">
+        <v>371</v>
+      </c>
+      <c r="C186" t="s">
+        <v>370</v>
+      </c>
+      <c r="D186" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" t="s">
+        <v>372</v>
+      </c>
+      <c r="B187" t="s">
+        <v>373</v>
+      </c>
+      <c r="C187" t="s">
+        <v>372</v>
+      </c>
+      <c r="D187" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" t="s">
+        <v>374</v>
+      </c>
+      <c r="B188" t="s">
+        <v>375</v>
+      </c>
+      <c r="C188" t="s">
+        <v>374</v>
+      </c>
+      <c r="D188" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" t="s">
+        <v>376</v>
+      </c>
+      <c r="B189" t="s">
+        <v>377</v>
+      </c>
+      <c r="C189" t="s">
+        <v>376</v>
+      </c>
+      <c r="D189" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" t="s">
+        <v>378</v>
+      </c>
+      <c r="B190" t="s">
+        <v>379</v>
+      </c>
+      <c r="C190" t="s">
+        <v>378</v>
+      </c>
+      <c r="D190" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" t="s">
+        <v>380</v>
+      </c>
+      <c r="B191" t="s">
+        <v>381</v>
+      </c>
+      <c r="C191" t="s">
+        <v>380</v>
+      </c>
+      <c r="D191" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" t="s">
+        <v>382</v>
+      </c>
+      <c r="B192" t="s">
+        <v>383</v>
+      </c>
+      <c r="C192" t="s">
+        <v>382</v>
+      </c>
+      <c r="D192" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" t="s">
+        <v>384</v>
+      </c>
+      <c r="B193" t="s">
+        <v>385</v>
+      </c>
+      <c r="C193" t="s">
+        <v>384</v>
+      </c>
+      <c r="D193" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" t="s">
+        <v>386</v>
+      </c>
+      <c r="B194" t="s">
+        <v>387</v>
+      </c>
+      <c r="C194" t="s">
+        <v>386</v>
+      </c>
+      <c r="D194" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" t="s">
+        <v>388</v>
+      </c>
+      <c r="B195" t="s">
+        <v>389</v>
+      </c>
+      <c r="C195" t="s">
+        <v>388</v>
+      </c>
+      <c r="D195" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" t="s">
+        <v>390</v>
+      </c>
+      <c r="B196" t="s">
+        <v>391</v>
+      </c>
+      <c r="C196" t="s">
+        <v>390</v>
+      </c>
+      <c r="D196" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" t="s">
+        <v>392</v>
+      </c>
+      <c r="B197" t="s">
+        <v>393</v>
+      </c>
+      <c r="C197" t="s">
+        <v>392</v>
+      </c>
+      <c r="D197" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" t="s">
+        <v>394</v>
+      </c>
+      <c r="B198" t="s">
+        <v>395</v>
+      </c>
+      <c r="C198" t="s">
+        <v>394</v>
+      </c>
+      <c r="D198" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" t="s">
+        <v>396</v>
+      </c>
+      <c r="B199" t="s">
+        <v>397</v>
+      </c>
+      <c r="C199" t="s">
+        <v>396</v>
+      </c>
+      <c r="D199" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" t="s">
+        <v>398</v>
+      </c>
+      <c r="B200" t="s">
+        <v>399</v>
+      </c>
+      <c r="C200" t="s">
+        <v>398</v>
+      </c>
+      <c r="D200" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" t="s">
+        <v>400</v>
+      </c>
+      <c r="B201" t="s">
+        <v>401</v>
+      </c>
+      <c r="C201" t="s">
+        <v>400</v>
+      </c>
+      <c r="D201" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" t="s">
+        <v>402</v>
+      </c>
+      <c r="B202" t="s">
+        <v>403</v>
+      </c>
+      <c r="C202" t="s">
+        <v>402</v>
+      </c>
+      <c r="D202" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" t="s">
+        <v>404</v>
+      </c>
+      <c r="B203" t="s">
+        <v>405</v>
+      </c>
+      <c r="C203" t="s">
+        <v>404</v>
+      </c>
+      <c r="D203" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" t="s">
+        <v>406</v>
+      </c>
+      <c r="B204" t="s">
+        <v>407</v>
+      </c>
+      <c r="C204" t="s">
+        <v>406</v>
+      </c>
+      <c r="D204" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" t="s">
+        <v>408</v>
+      </c>
+      <c r="B205" t="s">
+        <v>409</v>
+      </c>
+      <c r="C205" t="s">
+        <v>408</v>
+      </c>
+      <c r="D205" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" t="s">
+        <v>410</v>
+      </c>
+      <c r="B206" t="s">
+        <v>411</v>
+      </c>
+      <c r="C206" t="s">
+        <v>410</v>
+      </c>
+      <c r="D206" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" t="s">
+        <v>412</v>
+      </c>
+      <c r="B207" t="s">
+        <v>413</v>
+      </c>
+      <c r="C207" t="s">
+        <v>412</v>
+      </c>
+      <c r="D207" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" t="s">
+        <v>414</v>
+      </c>
+      <c r="B208" t="s">
+        <v>415</v>
+      </c>
+      <c r="C208" t="s">
+        <v>414</v>
+      </c>
+      <c r="D208" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" t="s">
+        <v>416</v>
+      </c>
+      <c r="B209" t="s">
+        <v>417</v>
+      </c>
+      <c r="C209" t="s">
+        <v>416</v>
+      </c>
+      <c r="D209" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" t="s">
+        <v>418</v>
+      </c>
+      <c r="B210" t="s">
+        <v>419</v>
+      </c>
+      <c r="C210" t="s">
+        <v>418</v>
+      </c>
+      <c r="D210" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" t="s">
+        <v>420</v>
+      </c>
+      <c r="B211" t="s">
+        <v>421</v>
+      </c>
+      <c r="C211" t="s">
+        <v>420</v>
+      </c>
+      <c r="D211" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" t="s">
+        <v>422</v>
+      </c>
+      <c r="B212" t="s">
+        <v>423</v>
+      </c>
+      <c r="C212" t="s">
+        <v>422</v>
+      </c>
+      <c r="D212" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" t="s">
+        <v>424</v>
+      </c>
+      <c r="B213" t="s">
+        <v>425</v>
+      </c>
+      <c r="C213" t="s">
+        <v>424</v>
+      </c>
+      <c r="D213" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" t="s">
+        <v>426</v>
+      </c>
+      <c r="B214" t="s">
+        <v>427</v>
+      </c>
+      <c r="C214" t="s">
+        <v>426</v>
+      </c>
+      <c r="D214" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" t="s">
+        <v>428</v>
+      </c>
+      <c r="B215" t="s">
+        <v>429</v>
+      </c>
+      <c r="C215" t="s">
+        <v>428</v>
+      </c>
+      <c r="D215" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" t="s">
+        <v>430</v>
+      </c>
+      <c r="B216" t="s">
+        <v>431</v>
+      </c>
+      <c r="C216" t="s">
+        <v>430</v>
+      </c>
+      <c r="D216" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" t="s">
+        <v>432</v>
+      </c>
+      <c r="B217" t="s">
+        <v>433</v>
+      </c>
+      <c r="C217" t="s">
+        <v>432</v>
+      </c>
+      <c r="D217" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" t="s">
+        <v>434</v>
+      </c>
+      <c r="B218" t="s">
+        <v>435</v>
+      </c>
+      <c r="C218" t="s">
+        <v>434</v>
+      </c>
+      <c r="D218" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" t="s">
+        <v>436</v>
+      </c>
+      <c r="B219" t="s">
+        <v>437</v>
+      </c>
+      <c r="C219" t="s">
+        <v>436</v>
+      </c>
+      <c r="D219" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" t="s">
+        <v>438</v>
+      </c>
+      <c r="B220" t="s">
+        <v>439</v>
+      </c>
+      <c r="C220" t="s">
+        <v>438</v>
+      </c>
+      <c r="D220" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" t="s">
+        <v>440</v>
+      </c>
+      <c r="B221" t="s">
+        <v>441</v>
+      </c>
+      <c r="C221" t="s">
+        <v>440</v>
+      </c>
+      <c r="D221" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" t="s">
+        <v>442</v>
+      </c>
+      <c r="B222" t="s">
+        <v>443</v>
+      </c>
+      <c r="C222" t="s">
+        <v>442</v>
+      </c>
+      <c r="D222" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" t="s">
+        <v>444</v>
+      </c>
+      <c r="B223" t="s">
+        <v>445</v>
+      </c>
+      <c r="C223" t="s">
+        <v>444</v>
+      </c>
+      <c r="D223" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" t="s">
+        <v>446</v>
+      </c>
+      <c r="B224" t="s">
+        <v>447</v>
+      </c>
+      <c r="C224" t="s">
+        <v>446</v>
+      </c>
+      <c r="D224" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" t="s">
+        <v>448</v>
+      </c>
+      <c r="B225" t="s">
+        <v>449</v>
+      </c>
+      <c r="C225" t="s">
+        <v>448</v>
+      </c>
+      <c r="D225" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" t="s">
+        <v>450</v>
+      </c>
+      <c r="B226" t="s">
+        <v>451</v>
+      </c>
+      <c r="C226" t="s">
+        <v>450</v>
+      </c>
+      <c r="D226" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" t="s">
+        <v>452</v>
+      </c>
+      <c r="B227" t="s">
+        <v>453</v>
+      </c>
+      <c r="C227" t="s">
+        <v>452</v>
+      </c>
+      <c r="D227" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" t="s">
+        <v>454</v>
+      </c>
+      <c r="B228" t="s">
+        <v>455</v>
+      </c>
+      <c r="C228" t="s">
+        <v>454</v>
+      </c>
+      <c r="D228" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" t="s">
+        <v>456</v>
+      </c>
+      <c r="B229" t="s">
+        <v>457</v>
+      </c>
+      <c r="C229" t="s">
+        <v>456</v>
+      </c>
+      <c r="D229" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" t="s">
+        <v>458</v>
+      </c>
+      <c r="B230" t="s">
+        <v>459</v>
+      </c>
+      <c r="C230" t="s">
+        <v>458</v>
+      </c>
+      <c r="D230" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" t="s">
+        <v>460</v>
+      </c>
+      <c r="B231" t="s">
+        <v>461</v>
+      </c>
+      <c r="C231" t="s">
+        <v>460</v>
+      </c>
+      <c r="D231" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" t="s">
+        <v>462</v>
+      </c>
+      <c r="B232" t="s">
+        <v>463</v>
+      </c>
+      <c r="C232" t="s">
+        <v>462</v>
+      </c>
+      <c r="D232" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" t="s">
+        <v>464</v>
+      </c>
+      <c r="B233" t="s">
+        <v>465</v>
+      </c>
+      <c r="C233" t="s">
+        <v>464</v>
+      </c>
+      <c r="D233" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" t="s">
+        <v>466</v>
+      </c>
+      <c r="B234" t="s">
+        <v>467</v>
+      </c>
+      <c r="C234" t="s">
+        <v>466</v>
+      </c>
+      <c r="D234" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" t="s">
+        <v>468</v>
+      </c>
+      <c r="B235" t="s">
+        <v>469</v>
+      </c>
+      <c r="C235" t="s">
+        <v>468</v>
+      </c>
+      <c r="D235" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" t="s">
+        <v>470</v>
+      </c>
+      <c r="B236" t="s">
+        <v>471</v>
+      </c>
+      <c r="C236" t="s">
+        <v>470</v>
+      </c>
+      <c r="D236" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" t="s">
+        <v>472</v>
+      </c>
+      <c r="B237" t="s">
+        <v>473</v>
+      </c>
+      <c r="C237" t="s">
+        <v>472</v>
+      </c>
+      <c r="D237" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" t="s">
+        <v>474</v>
+      </c>
+      <c r="B238" t="s">
+        <v>475</v>
+      </c>
+      <c r="C238" t="s">
+        <v>474</v>
+      </c>
+      <c r="D238" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" t="s">
+        <v>476</v>
+      </c>
+      <c r="B239" t="s">
+        <v>477</v>
+      </c>
+      <c r="C239" t="s">
+        <v>476</v>
+      </c>
+      <c r="D239" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" t="s">
+        <v>478</v>
+      </c>
+      <c r="B240" t="s">
+        <v>479</v>
+      </c>
+      <c r="C240" t="s">
+        <v>478</v>
+      </c>
+      <c r="D240" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" t="s">
+        <v>480</v>
+      </c>
+      <c r="B241" t="s">
+        <v>481</v>
+      </c>
+      <c r="C241" t="s">
+        <v>480</v>
+      </c>
+      <c r="D241" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" t="s">
+        <v>482</v>
+      </c>
+      <c r="B242" t="s">
+        <v>483</v>
+      </c>
+      <c r="C242" t="s">
+        <v>482</v>
+      </c>
+      <c r="D242" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" t="s">
+        <v>484</v>
+      </c>
+      <c r="B243" t="s">
+        <v>485</v>
+      </c>
+      <c r="C243" t="s">
+        <v>484</v>
+      </c>
+      <c r="D243" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" t="s">
+        <v>486</v>
+      </c>
+      <c r="B244" t="s">
+        <v>487</v>
+      </c>
+      <c r="C244" t="s">
+        <v>486</v>
+      </c>
+      <c r="D244" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" t="s">
+        <v>488</v>
+      </c>
+      <c r="B245" t="s">
+        <v>489</v>
+      </c>
+      <c r="C245" t="s">
+        <v>488</v>
+      </c>
+      <c r="D245" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" t="s">
+        <v>490</v>
+      </c>
+      <c r="B246" t="s">
+        <v>491</v>
+      </c>
+      <c r="C246" t="s">
+        <v>490</v>
+      </c>
+      <c r="D246" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" t="s">
+        <v>492</v>
+      </c>
+      <c r="B247" t="s">
+        <v>493</v>
+      </c>
+      <c r="C247" t="s">
+        <v>492</v>
+      </c>
+      <c r="D247" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" t="s">
+        <v>494</v>
+      </c>
+      <c r="B248" t="s">
+        <v>495</v>
+      </c>
+      <c r="C248" t="s">
+        <v>494</v>
+      </c>
+      <c r="D248" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" t="s">
+        <v>496</v>
+      </c>
+      <c r="B249" t="s">
+        <v>497</v>
+      </c>
+      <c r="C249" t="s">
+        <v>496</v>
+      </c>
+      <c r="D249" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" t="s">
+        <v>498</v>
+      </c>
+      <c r="B250" t="s">
+        <v>499</v>
+      </c>
+      <c r="C250" t="s">
+        <v>498</v>
+      </c>
+      <c r="D250" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" t="s">
+        <v>500</v>
+      </c>
+      <c r="B251" t="s">
+        <v>501</v>
+      </c>
+      <c r="C251" t="s">
+        <v>500</v>
+      </c>
+      <c r="D251" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" t="s">
+        <v>502</v>
+      </c>
+      <c r="B252" t="s">
+        <v>503</v>
+      </c>
+      <c r="C252" t="s">
+        <v>502</v>
+      </c>
+      <c r="D252" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" t="s">
+        <v>504</v>
+      </c>
+      <c r="B253" t="s">
+        <v>505</v>
+      </c>
+      <c r="C253" t="s">
+        <v>504</v>
+      </c>
+      <c r="D253" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" t="s">
+        <v>506</v>
+      </c>
+      <c r="B254" t="s">
+        <v>507</v>
+      </c>
+      <c r="C254" t="s">
+        <v>506</v>
+      </c>
+      <c r="D254" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" t="s">
+        <v>508</v>
+      </c>
+      <c r="B255" t="s">
+        <v>509</v>
+      </c>
+      <c r="C255" t="s">
+        <v>508</v>
+      </c>
+      <c r="D255" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" t="s">
+        <v>510</v>
+      </c>
+      <c r="B256" t="s">
+        <v>511</v>
+      </c>
+      <c r="C256" t="s">
+        <v>510</v>
+      </c>
+      <c r="D256" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" t="s">
+        <v>512</v>
+      </c>
+      <c r="B257" t="s">
+        <v>513</v>
+      </c>
+      <c r="C257" t="s">
+        <v>512</v>
+      </c>
+      <c r="D257" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" t="s">
+        <v>514</v>
+      </c>
+      <c r="B258" t="s">
+        <v>515</v>
+      </c>
+      <c r="C258" t="s">
+        <v>514</v>
+      </c>
+      <c r="D258" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" t="s">
+        <v>516</v>
+      </c>
+      <c r="B259" t="s">
+        <v>517</v>
+      </c>
+      <c r="C259" t="s">
+        <v>516</v>
+      </c>
+      <c r="D259" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" t="s">
+        <v>518</v>
+      </c>
+      <c r="B260" t="s">
+        <v>519</v>
+      </c>
+      <c r="C260" t="s">
+        <v>518</v>
+      </c>
+      <c r="D260" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" t="s">
+        <v>520</v>
+      </c>
+      <c r="B261" t="s">
+        <v>521</v>
+      </c>
+      <c r="C261" t="s">
+        <v>520</v>
+      </c>
+      <c r="D261" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" t="s">
+        <v>522</v>
+      </c>
+      <c r="B262" t="s">
+        <v>523</v>
+      </c>
+      <c r="C262" t="s">
+        <v>522</v>
+      </c>
+      <c r="D262" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" t="s">
+        <v>524</v>
+      </c>
+      <c r="B263" t="s">
+        <v>525</v>
+      </c>
+      <c r="C263" t="s">
+        <v>524</v>
+      </c>
+      <c r="D263" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" t="s">
+        <v>526</v>
+      </c>
+      <c r="B264" t="s">
+        <v>527</v>
+      </c>
+      <c r="C264" t="s">
+        <v>526</v>
+      </c>
+      <c r="D264" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" t="s">
+        <v>528</v>
+      </c>
+      <c r="B265" t="s">
+        <v>529</v>
+      </c>
+      <c r="C265" t="s">
+        <v>528</v>
+      </c>
+      <c r="D265" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" t="s">
+        <v>530</v>
+      </c>
+      <c r="B266" t="s">
+        <v>531</v>
+      </c>
+      <c r="C266" t="s">
+        <v>530</v>
+      </c>
+      <c r="D266" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" t="s">
+        <v>532</v>
+      </c>
+      <c r="B267" t="s">
+        <v>533</v>
+      </c>
+      <c r="C267" t="s">
+        <v>532</v>
+      </c>
+      <c r="D267" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" t="s">
+        <v>534</v>
+      </c>
+      <c r="B268" t="s">
+        <v>535</v>
+      </c>
+      <c r="C268" t="s">
+        <v>534</v>
+      </c>
+      <c r="D268" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" t="s">
+        <v>536</v>
+      </c>
+      <c r="B269" t="s">
+        <v>537</v>
+      </c>
+      <c r="C269" t="s">
+        <v>536</v>
+      </c>
+      <c r="D269" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" t="s">
+        <v>538</v>
+      </c>
+      <c r="B270" t="s">
+        <v>539</v>
+      </c>
+      <c r="C270" t="s">
+        <v>538</v>
+      </c>
+      <c r="D270" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" t="s">
+        <v>540</v>
+      </c>
+      <c r="B271" t="s">
+        <v>541</v>
+      </c>
+      <c r="C271" t="s">
+        <v>540</v>
+      </c>
+      <c r="D271" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" t="s">
+        <v>542</v>
+      </c>
+      <c r="B272" t="s">
+        <v>543</v>
+      </c>
+      <c r="C272" t="s">
+        <v>542</v>
+      </c>
+      <c r="D272" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" t="s">
+        <v>544</v>
+      </c>
+      <c r="B273" t="s">
+        <v>545</v>
+      </c>
+      <c r="C273" t="s">
+        <v>544</v>
+      </c>
+      <c r="D273" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" t="s">
+        <v>546</v>
+      </c>
+      <c r="B274" t="s">
+        <v>547</v>
+      </c>
+      <c r="C274" t="s">
+        <v>546</v>
+      </c>
+      <c r="D274" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" t="s">
+        <v>548</v>
+      </c>
+      <c r="B275" t="s">
+        <v>549</v>
+      </c>
+      <c r="C275" t="s">
+        <v>548</v>
+      </c>
+      <c r="D275" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" t="s">
+        <v>550</v>
+      </c>
+      <c r="B276" t="s">
+        <v>551</v>
+      </c>
+      <c r="C276" t="s">
+        <v>550</v>
+      </c>
+      <c r="D276" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" t="s">
+        <v>552</v>
+      </c>
+      <c r="B277" t="s">
+        <v>553</v>
+      </c>
+      <c r="C277" t="s">
+        <v>552</v>
+      </c>
+      <c r="D277" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" t="s">
+        <v>554</v>
+      </c>
+      <c r="B278" t="s">
+        <v>555</v>
+      </c>
+      <c r="C278" t="s">
+        <v>554</v>
+      </c>
+      <c r="D278" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" t="s">
+        <v>556</v>
+      </c>
+      <c r="B279" t="s">
+        <v>557</v>
+      </c>
+      <c r="C279" t="s">
+        <v>556</v>
+      </c>
+      <c r="D279" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" t="s">
+        <v>558</v>
+      </c>
+      <c r="B280" t="s">
+        <v>559</v>
+      </c>
+      <c r="C280" t="s">
+        <v>558</v>
+      </c>
+      <c r="D280" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" t="s">
+        <v>560</v>
+      </c>
+      <c r="B281" t="s">
+        <v>561</v>
+      </c>
+      <c r="C281" t="s">
+        <v>560</v>
+      </c>
+      <c r="D281" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" t="s">
+        <v>562</v>
+      </c>
+      <c r="B282" t="s">
+        <v>563</v>
+      </c>
+      <c r="C282" t="s">
+        <v>562</v>
+      </c>
+      <c r="D282" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" t="s">
+        <v>564</v>
+      </c>
+      <c r="B283" t="s">
+        <v>565</v>
+      </c>
+      <c r="C283" t="s">
+        <v>564</v>
+      </c>
+      <c r="D283" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" t="s">
+        <v>566</v>
+      </c>
+      <c r="B284" t="s">
+        <v>567</v>
+      </c>
+      <c r="C284" t="s">
+        <v>566</v>
+      </c>
+      <c r="D284" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" t="s">
+        <v>568</v>
+      </c>
+      <c r="B285" t="s">
+        <v>569</v>
+      </c>
+      <c r="C285" t="s">
+        <v>568</v>
+      </c>
+      <c r="D285" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" t="s">
+        <v>570</v>
+      </c>
+      <c r="B286" t="s">
+        <v>571</v>
+      </c>
+      <c r="C286" t="s">
+        <v>570</v>
+      </c>
+      <c r="D286" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" t="s">
+        <v>572</v>
+      </c>
+      <c r="B287" t="s">
+        <v>573</v>
+      </c>
+      <c r="C287" t="s">
+        <v>572</v>
+      </c>
+      <c r="D287" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" t="s">
+        <v>574</v>
+      </c>
+      <c r="B288" t="s">
+        <v>575</v>
+      </c>
+      <c r="C288" t="s">
+        <v>574</v>
+      </c>
+      <c r="D288" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" t="s">
+        <v>576</v>
+      </c>
+      <c r="B289" t="s">
+        <v>577</v>
+      </c>
+      <c r="C289" t="s">
+        <v>576</v>
+      </c>
+      <c r="D289" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" t="s">
+        <v>578</v>
+      </c>
+      <c r="B290" t="s">
+        <v>579</v>
+      </c>
+      <c r="C290" t="s">
+        <v>578</v>
+      </c>
+      <c r="D290" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" t="s">
+        <v>580</v>
+      </c>
+      <c r="B291" t="s">
+        <v>581</v>
+      </c>
+      <c r="C291" t="s">
+        <v>580</v>
+      </c>
+      <c r="D291" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" t="s">
+        <v>582</v>
+      </c>
+      <c r="B292" t="s">
+        <v>583</v>
+      </c>
+      <c r="C292" t="s">
+        <v>582</v>
+      </c>
+      <c r="D292" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" t="s">
+        <v>584</v>
+      </c>
+      <c r="B293" t="s">
+        <v>585</v>
+      </c>
+      <c r="C293" t="s">
+        <v>584</v>
+      </c>
+      <c r="D293" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" t="s">
+        <v>586</v>
+      </c>
+      <c r="B294" t="s">
+        <v>587</v>
+      </c>
+      <c r="C294" t="s">
+        <v>586</v>
+      </c>
+      <c r="D294" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" t="s">
+        <v>588</v>
+      </c>
+      <c r="B295" t="s">
+        <v>589</v>
+      </c>
+      <c r="C295" t="s">
+        <v>588</v>
+      </c>
+      <c r="D295" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" t="s">
+        <v>590</v>
+      </c>
+      <c r="B296" t="s">
+        <v>591</v>
+      </c>
+      <c r="C296" t="s">
+        <v>590</v>
+      </c>
+      <c r="D296" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" t="s">
+        <v>592</v>
+      </c>
+      <c r="B297" t="s">
+        <v>593</v>
+      </c>
+      <c r="C297" t="s">
+        <v>592</v>
+      </c>
+      <c r="D297" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" t="s">
+        <v>594</v>
+      </c>
+      <c r="B298" t="s">
+        <v>595</v>
+      </c>
+      <c r="C298" t="s">
+        <v>594</v>
+      </c>
+      <c r="D298" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" t="s">
+        <v>596</v>
+      </c>
+      <c r="B299" t="s">
+        <v>597</v>
+      </c>
+      <c r="C299" t="s">
+        <v>596</v>
+      </c>
+      <c r="D299" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" t="s">
+        <v>598</v>
+      </c>
+      <c r="B300" t="s">
+        <v>599</v>
+      </c>
+      <c r="C300" t="s">
+        <v>598</v>
+      </c>
+      <c r="D300" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" t="s">
+        <v>600</v>
+      </c>
+      <c r="B301" t="s">
+        <v>601</v>
+      </c>
+      <c r="C301" t="s">
+        <v>600</v>
+      </c>
+      <c r="D301" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" t="s">
+        <v>602</v>
+      </c>
+      <c r="B302" t="s">
+        <v>603</v>
+      </c>
+      <c r="C302" t="s">
+        <v>602</v>
+      </c>
+      <c r="D302" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" t="s">
+        <v>604</v>
+      </c>
+      <c r="B303" t="s">
+        <v>605</v>
+      </c>
+      <c r="C303" t="s">
+        <v>604</v>
+      </c>
+      <c r="D303" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" t="s">
+        <v>606</v>
+      </c>
+      <c r="B304" t="s">
+        <v>607</v>
+      </c>
+      <c r="C304" t="s">
+        <v>606</v>
+      </c>
+      <c r="D304" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305" t="s">
+        <v>608</v>
+      </c>
+      <c r="B305" t="s">
+        <v>609</v>
+      </c>
+      <c r="C305" t="s">
+        <v>608</v>
+      </c>
+      <c r="D305" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306" t="s">
+        <v>610</v>
+      </c>
+      <c r="B306" t="s">
+        <v>611</v>
+      </c>
+      <c r="C306" t="s">
+        <v>610</v>
+      </c>
+      <c r="D306" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307" t="s">
+        <v>612</v>
+      </c>
+      <c r="B307" t="s">
+        <v>613</v>
+      </c>
+      <c r="C307" t="s">
+        <v>612</v>
+      </c>
+      <c r="D307" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308" t="s">
+        <v>614</v>
+      </c>
+      <c r="B308" t="s">
+        <v>615</v>
+      </c>
+      <c r="C308" t="s">
+        <v>614</v>
+      </c>
+      <c r="D308" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309" t="s">
+        <v>616</v>
+      </c>
+      <c r="B309" t="s">
+        <v>617</v>
+      </c>
+      <c r="C309" t="s">
+        <v>616</v>
+      </c>
+      <c r="D309" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310" t="s">
+        <v>618</v>
+      </c>
+      <c r="B310" t="s">
+        <v>619</v>
+      </c>
+      <c r="C310" t="s">
+        <v>618</v>
+      </c>
+      <c r="D310" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311" t="s">
+        <v>620</v>
+      </c>
+      <c r="B311" t="s">
+        <v>621</v>
+      </c>
+      <c r="C311" t="s">
+        <v>620</v>
+      </c>
+      <c r="D311" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312" t="s">
+        <v>622</v>
+      </c>
+      <c r="B312" t="s">
+        <v>623</v>
+      </c>
+      <c r="C312" t="s">
+        <v>622</v>
+      </c>
+      <c r="D312" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313" t="s">
+        <v>624</v>
+      </c>
+      <c r="B313" t="s">
+        <v>625</v>
+      </c>
+      <c r="C313" t="s">
+        <v>624</v>
+      </c>
+      <c r="D313" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314" t="s">
+        <v>626</v>
+      </c>
+      <c r="B314" t="s">
+        <v>627</v>
+      </c>
+      <c r="C314" t="s">
+        <v>626</v>
+      </c>
+      <c r="D314" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315" t="s">
+        <v>628</v>
+      </c>
+      <c r="B315" t="s">
+        <v>629</v>
+      </c>
+      <c r="C315" t="s">
+        <v>628</v>
+      </c>
+      <c r="D315" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316" t="s">
+        <v>630</v>
+      </c>
+      <c r="B316" t="s">
+        <v>631</v>
+      </c>
+      <c r="C316" t="s">
+        <v>630</v>
+      </c>
+      <c r="D316" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317" t="s">
+        <v>632</v>
+      </c>
+      <c r="B317" t="s">
+        <v>633</v>
+      </c>
+      <c r="C317" t="s">
+        <v>632</v>
+      </c>
+      <c r="D317" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318" t="s">
+        <v>634</v>
+      </c>
+      <c r="B318" t="s">
+        <v>635</v>
+      </c>
+      <c r="C318" t="s">
+        <v>634</v>
+      </c>
+      <c r="D318" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319" t="s">
+        <v>636</v>
+      </c>
+      <c r="B319" t="s">
+        <v>637</v>
+      </c>
+      <c r="C319" t="s">
+        <v>636</v>
+      </c>
+      <c r="D319" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320" t="s">
+        <v>638</v>
+      </c>
+      <c r="B320" t="s">
+        <v>639</v>
+      </c>
+      <c r="C320" t="s">
+        <v>638</v>
+      </c>
+      <c r="D320" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321" t="s">
+        <v>640</v>
+      </c>
+      <c r="B321" t="s">
+        <v>641</v>
+      </c>
+      <c r="C321" t="s">
+        <v>640</v>
+      </c>
+      <c r="D321" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322" t="s">
+        <v>642</v>
+      </c>
+      <c r="B322" t="s">
+        <v>643</v>
+      </c>
+      <c r="C322" t="s">
+        <v>642</v>
+      </c>
+      <c r="D322" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323" t="s">
+        <v>644</v>
+      </c>
+      <c r="B323" t="s">
+        <v>645</v>
+      </c>
+      <c r="C323" t="s">
+        <v>644</v>
+      </c>
+      <c r="D323" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324" t="s">
+        <v>646</v>
+      </c>
+      <c r="B324" t="s">
+        <v>647</v>
+      </c>
+      <c r="C324" t="s">
+        <v>646</v>
+      </c>
+      <c r="D324" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325" t="s">
+        <v>648</v>
+      </c>
+      <c r="B325" t="s">
+        <v>649</v>
+      </c>
+      <c r="C325" t="s">
+        <v>648</v>
+      </c>
+      <c r="D325" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326" t="s">
+        <v>650</v>
+      </c>
+      <c r="B326" t="s">
+        <v>651</v>
+      </c>
+      <c r="C326" t="s">
+        <v>650</v>
+      </c>
+      <c r="D326" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327" t="s">
+        <v>652</v>
+      </c>
+      <c r="B327" t="s">
+        <v>653</v>
+      </c>
+      <c r="C327" t="s">
+        <v>652</v>
+      </c>
+      <c r="D327" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328" t="s">
+        <v>654</v>
+      </c>
+      <c r="B328" t="s">
+        <v>655</v>
+      </c>
+      <c r="C328" t="s">
+        <v>654</v>
+      </c>
+      <c r="D328" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329" t="s">
+        <v>656</v>
+      </c>
+      <c r="B329" t="s">
+        <v>657</v>
+      </c>
+      <c r="C329" t="s">
+        <v>656</v>
+      </c>
+      <c r="D329" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330" t="s">
+        <v>658</v>
+      </c>
+      <c r="B330" t="s">
+        <v>659</v>
+      </c>
+      <c r="C330" t="s">
+        <v>658</v>
+      </c>
+      <c r="D330" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="A331" t="s">
+        <v>660</v>
+      </c>
+      <c r="B331" t="s">
+        <v>661</v>
+      </c>
+      <c r="C331" t="s">
+        <v>660</v>
+      </c>
+      <c r="D331" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332" t="s">
+        <v>662</v>
+      </c>
+      <c r="B332" t="s">
+        <v>663</v>
+      </c>
+      <c r="C332" t="s">
+        <v>662</v>
+      </c>
+      <c r="D332" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
+      <c r="A333" t="s">
+        <v>664</v>
+      </c>
+      <c r="B333" t="s">
+        <v>665</v>
+      </c>
+      <c r="C333" t="s">
+        <v>664</v>
+      </c>
+      <c r="D333" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334" t="s">
+        <v>666</v>
+      </c>
+      <c r="B334" t="s">
+        <v>667</v>
+      </c>
+      <c r="C334" t="s">
+        <v>666</v>
+      </c>
+      <c r="D334" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
+      <c r="A335" t="s">
+        <v>668</v>
+      </c>
+      <c r="B335" t="s">
+        <v>669</v>
+      </c>
+      <c r="C335" t="s">
+        <v>668</v>
+      </c>
+      <c r="D335" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="A336" t="s">
+        <v>670</v>
+      </c>
+      <c r="B336" t="s">
+        <v>671</v>
+      </c>
+      <c r="C336" t="s">
+        <v>670</v>
+      </c>
+      <c r="D336" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
+      <c r="A337" t="s">
+        <v>672</v>
+      </c>
+      <c r="B337" t="s">
+        <v>673</v>
+      </c>
+      <c r="C337" t="s">
+        <v>672</v>
+      </c>
+      <c r="D337" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
+      <c r="A338" t="s">
+        <v>674</v>
+      </c>
+      <c r="B338" t="s">
+        <v>675</v>
+      </c>
+      <c r="C338" t="s">
+        <v>674</v>
+      </c>
+      <c r="D338" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
+      <c r="A339" t="s">
+        <v>676</v>
+      </c>
+      <c r="B339" t="s">
+        <v>677</v>
+      </c>
+      <c r="C339" t="s">
+        <v>676</v>
+      </c>
+      <c r="D339" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
+      <c r="A340" t="s">
+        <v>678</v>
+      </c>
+      <c r="B340" t="s">
+        <v>679</v>
+      </c>
+      <c r="C340" t="s">
+        <v>678</v>
+      </c>
+      <c r="D340" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
+      <c r="A341" t="s">
+        <v>680</v>
+      </c>
+      <c r="B341" t="s">
+        <v>681</v>
+      </c>
+      <c r="C341" t="s">
+        <v>680</v>
+      </c>
+      <c r="D341" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
+      <c r="A342" t="s">
+        <v>682</v>
+      </c>
+      <c r="B342" t="s">
+        <v>683</v>
+      </c>
+      <c r="C342" t="s">
+        <v>682</v>
+      </c>
+      <c r="D342" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
+      <c r="A343" t="s">
+        <v>684</v>
+      </c>
+      <c r="B343" t="s">
+        <v>685</v>
+      </c>
+      <c r="C343" t="s">
+        <v>684</v>
+      </c>
+      <c r="D343" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
+      <c r="A344" t="s">
+        <v>686</v>
+      </c>
+      <c r="B344" t="s">
+        <v>687</v>
+      </c>
+      <c r="C344" t="s">
+        <v>686</v>
+      </c>
+      <c r="D344" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4">
+      <c r="A345" t="s">
+        <v>688</v>
+      </c>
+      <c r="B345" t="s">
+        <v>689</v>
+      </c>
+      <c r="C345" t="s">
+        <v>688</v>
+      </c>
+      <c r="D345" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4">
+      <c r="A346" t="s">
+        <v>690</v>
+      </c>
+      <c r="B346" t="s">
+        <v>691</v>
+      </c>
+      <c r="C346" t="s">
+        <v>690</v>
+      </c>
+      <c r="D346" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
+      <c r="A347" t="s">
+        <v>692</v>
+      </c>
+      <c r="B347" t="s">
+        <v>693</v>
+      </c>
+      <c r="C347" t="s">
+        <v>692</v>
+      </c>
+      <c r="D347" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
+      <c r="A348" t="s">
+        <v>694</v>
+      </c>
+      <c r="B348" t="s">
+        <v>695</v>
+      </c>
+      <c r="C348" t="s">
+        <v>694</v>
+      </c>
+      <c r="D348" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
+      <c r="A349" t="s">
+        <v>696</v>
+      </c>
+      <c r="B349" t="s">
+        <v>697</v>
+      </c>
+      <c r="C349" t="s">
+        <v>696</v>
+      </c>
+      <c r="D349" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
+      <c r="A350" t="s">
+        <v>698</v>
+      </c>
+      <c r="B350" t="s">
+        <v>699</v>
+      </c>
+      <c r="C350" t="s">
+        <v>698</v>
+      </c>
+      <c r="D350" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
+      <c r="A351" t="s">
+        <v>700</v>
+      </c>
+      <c r="B351" t="s">
+        <v>701</v>
+      </c>
+      <c r="C351" t="s">
+        <v>700</v>
+      </c>
+      <c r="D351" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4">
+      <c r="A352" t="s">
+        <v>702</v>
+      </c>
+      <c r="B352" t="s">
+        <v>703</v>
+      </c>
+      <c r="C352" t="s">
+        <v>702</v>
+      </c>
+      <c r="D352" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4">
+      <c r="A353" t="s">
+        <v>704</v>
+      </c>
+      <c r="B353" t="s">
+        <v>705</v>
+      </c>
+      <c r="C353" t="s">
+        <v>704</v>
+      </c>
+      <c r="D353" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="A354" t="s">
+        <v>706</v>
+      </c>
+      <c r="B354" t="s">
+        <v>707</v>
+      </c>
+      <c r="C354" t="s">
+        <v>706</v>
+      </c>
+      <c r="D354" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
+      <c r="A355" t="s">
+        <v>708</v>
+      </c>
+      <c r="B355" t="s">
+        <v>709</v>
+      </c>
+      <c r="C355" t="s">
+        <v>708</v>
+      </c>
+      <c r="D355" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="A356" t="s">
+        <v>710</v>
+      </c>
+      <c r="B356" t="s">
+        <v>711</v>
+      </c>
+      <c r="C356" t="s">
+        <v>710</v>
+      </c>
+      <c r="D356" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="A357" t="s">
+        <v>712</v>
+      </c>
+      <c r="B357" t="s">
+        <v>713</v>
+      </c>
+      <c r="C357" t="s">
+        <v>712</v>
+      </c>
+      <c r="D357" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="A358" t="s">
+        <v>714</v>
+      </c>
+      <c r="B358" t="s">
+        <v>715</v>
+      </c>
+      <c r="C358" t="s">
+        <v>714</v>
+      </c>
+      <c r="D358" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
+      <c r="A359" t="s">
+        <v>716</v>
+      </c>
+      <c r="B359" t="s">
+        <v>717</v>
+      </c>
+      <c r="C359" t="s">
+        <v>716</v>
+      </c>
+      <c r="D359" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
+      <c r="A360" t="s">
+        <v>718</v>
+      </c>
+      <c r="B360" t="s">
+        <v>719</v>
+      </c>
+      <c r="C360" t="s">
+        <v>718</v>
+      </c>
+      <c r="D360" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="A361" t="s">
+        <v>720</v>
+      </c>
+      <c r="B361" t="s">
+        <v>721</v>
+      </c>
+      <c r="C361" t="s">
+        <v>720</v>
+      </c>
+      <c r="D361" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="A362" t="s">
+        <v>722</v>
+      </c>
+      <c r="B362" t="s">
+        <v>723</v>
+      </c>
+      <c r="C362" t="s">
+        <v>722</v>
+      </c>
+      <c r="D362" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="A363" t="s">
+        <v>724</v>
+      </c>
+      <c r="B363" t="s">
+        <v>725</v>
+      </c>
+      <c r="C363" t="s">
+        <v>724</v>
+      </c>
+      <c r="D363" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="A364" t="s">
+        <v>726</v>
+      </c>
+      <c r="B364" t="s">
+        <v>727</v>
+      </c>
+      <c r="C364" t="s">
+        <v>726</v>
+      </c>
+      <c r="D364" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="A365" t="s">
+        <v>728</v>
+      </c>
+      <c r="B365" t="s">
+        <v>729</v>
+      </c>
+      <c r="C365" t="s">
+        <v>728</v>
+      </c>
+      <c r="D365" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="A366" t="s">
+        <v>730</v>
+      </c>
+      <c r="B366" t="s">
+        <v>731</v>
+      </c>
+      <c r="C366" t="s">
+        <v>730</v>
+      </c>
+      <c r="D366" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
+      <c r="A367" t="s">
+        <v>732</v>
+      </c>
+      <c r="B367" t="s">
+        <v>733</v>
+      </c>
+      <c r="C367" t="s">
+        <v>732</v>
+      </c>
+      <c r="D367" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="A368" t="s">
+        <v>734</v>
+      </c>
+      <c r="B368" t="s">
+        <v>735</v>
+      </c>
+      <c r="C368" t="s">
+        <v>734</v>
+      </c>
+      <c r="D368" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" t="s">
+        <v>736</v>
+      </c>
+      <c r="B369" t="s">
+        <v>737</v>
+      </c>
+      <c r="C369" t="s">
+        <v>736</v>
+      </c>
+      <c r="D369" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" t="s">
+        <v>738</v>
+      </c>
+      <c r="B370" t="s">
+        <v>739</v>
+      </c>
+      <c r="C370" t="s">
+        <v>738</v>
+      </c>
+      <c r="D370" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" t="s">
+        <v>740</v>
+      </c>
+      <c r="B371" t="s">
+        <v>741</v>
+      </c>
+      <c r="C371" t="s">
+        <v>740</v>
+      </c>
+      <c r="D371" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" t="s">
+        <v>742</v>
+      </c>
+      <c r="B372" t="s">
+        <v>743</v>
+      </c>
+      <c r="C372" t="s">
+        <v>742</v>
+      </c>
+      <c r="D372" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" t="s">
+        <v>744</v>
+      </c>
+      <c r="B373" t="s">
+        <v>745</v>
+      </c>
+      <c r="C373" t="s">
+        <v>744</v>
+      </c>
+      <c r="D373" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" t="s">
+        <v>746</v>
+      </c>
+      <c r="B374" t="s">
+        <v>747</v>
+      </c>
+      <c r="C374" t="s">
+        <v>746</v>
+      </c>
+      <c r="D374" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" t="s">
+        <v>748</v>
+      </c>
+      <c r="B375" t="s">
+        <v>749</v>
+      </c>
+      <c r="C375" t="s">
+        <v>748</v>
+      </c>
+      <c r="D375" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" t="s">
+        <v>750</v>
+      </c>
+      <c r="B376" t="s">
+        <v>751</v>
+      </c>
+      <c r="C376" t="s">
+        <v>750</v>
+      </c>
+      <c r="D376" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" t="s">
+        <v>752</v>
+      </c>
+      <c r="B377" t="s">
+        <v>753</v>
+      </c>
+      <c r="C377" t="s">
+        <v>752</v>
+      </c>
+      <c r="D377" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" t="s">
+        <v>754</v>
+      </c>
+      <c r="B378" t="s">
+        <v>755</v>
+      </c>
+      <c r="C378" t="s">
+        <v>754</v>
+      </c>
+      <c r="D378" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" t="s">
+        <v>756</v>
+      </c>
+      <c r="B379" t="s">
+        <v>757</v>
+      </c>
+      <c r="C379" t="s">
+        <v>756</v>
+      </c>
+      <c r="D379" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" t="s">
+        <v>758</v>
+      </c>
+      <c r="B380" t="s">
+        <v>759</v>
+      </c>
+      <c r="C380" t="s">
+        <v>758</v>
+      </c>
+      <c r="D380" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" t="s">
+        <v>760</v>
+      </c>
+      <c r="B381" t="s">
+        <v>761</v>
+      </c>
+      <c r="C381" t="s">
+        <v>760</v>
+      </c>
+      <c r="D381" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" t="s">
+        <v>762</v>
+      </c>
+      <c r="B382" t="s">
+        <v>763</v>
+      </c>
+      <c r="C382" t="s">
+        <v>762</v>
+      </c>
+      <c r="D382" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
+      <c r="A383" t="s">
+        <v>764</v>
+      </c>
+      <c r="B383" t="s">
+        <v>765</v>
+      </c>
+      <c r="C383" t="s">
+        <v>764</v>
+      </c>
+      <c r="D383" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384" t="s">
+        <v>766</v>
+      </c>
+      <c r="B384" t="s">
+        <v>767</v>
+      </c>
+      <c r="C384" t="s">
+        <v>766</v>
+      </c>
+      <c r="D384" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" t="s">
+        <v>768</v>
+      </c>
+      <c r="B385" t="s">
+        <v>769</v>
+      </c>
+      <c r="C385" t="s">
+        <v>768</v>
+      </c>
+      <c r="D385" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386" t="s">
+        <v>770</v>
+      </c>
+      <c r="B386" t="s">
+        <v>771</v>
+      </c>
+      <c r="C386" t="s">
+        <v>770</v>
+      </c>
+      <c r="D386" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387" t="s">
+        <v>772</v>
+      </c>
+      <c r="B387" t="s">
+        <v>773</v>
+      </c>
+      <c r="C387" t="s">
+        <v>772</v>
+      </c>
+      <c r="D387" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388" t="s">
+        <v>774</v>
+      </c>
+      <c r="B388" t="s">
+        <v>775</v>
+      </c>
+      <c r="C388" t="s">
+        <v>774</v>
+      </c>
+      <c r="D388" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="A389" t="s">
+        <v>776</v>
+      </c>
+      <c r="B389" t="s">
+        <v>777</v>
+      </c>
+      <c r="C389" t="s">
+        <v>776</v>
+      </c>
+      <c r="D389" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
+      <c r="A390" t="s">
+        <v>778</v>
+      </c>
+      <c r="B390" t="s">
+        <v>779</v>
+      </c>
+      <c r="C390" t="s">
+        <v>778</v>
+      </c>
+      <c r="D390" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4">
+      <c r="A391" t="s">
+        <v>780</v>
+      </c>
+      <c r="B391" t="s">
+        <v>781</v>
+      </c>
+      <c r="C391" t="s">
+        <v>780</v>
+      </c>
+      <c r="D391" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4">
+      <c r="A392" t="s">
+        <v>782</v>
+      </c>
+      <c r="B392" t="s">
+        <v>783</v>
+      </c>
+      <c r="C392" t="s">
+        <v>782</v>
+      </c>
+      <c r="D392" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4">
+      <c r="A393" t="s">
+        <v>784</v>
+      </c>
+      <c r="B393" t="s">
+        <v>785</v>
+      </c>
+      <c r="C393" t="s">
+        <v>784</v>
+      </c>
+      <c r="D393" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4">
+      <c r="A394" t="s">
+        <v>786</v>
+      </c>
+      <c r="B394" t="s">
+        <v>787</v>
+      </c>
+      <c r="C394" t="s">
+        <v>786</v>
+      </c>
+      <c r="D394" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4">
+      <c r="A395" t="s">
+        <v>788</v>
+      </c>
+      <c r="B395" t="s">
+        <v>789</v>
+      </c>
+      <c r="C395" t="s">
+        <v>788</v>
+      </c>
+      <c r="D395" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4">
+      <c r="A396" t="s">
+        <v>790</v>
+      </c>
+      <c r="B396" t="s">
+        <v>791</v>
+      </c>
+      <c r="C396" t="s">
+        <v>790</v>
+      </c>
+      <c r="D396" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4">
+      <c r="A397" t="s">
+        <v>792</v>
+      </c>
+      <c r="B397" t="s">
+        <v>793</v>
+      </c>
+      <c r="C397" t="s">
+        <v>792</v>
+      </c>
+      <c r="D397" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4">
+      <c r="A398" t="s">
+        <v>794</v>
+      </c>
+      <c r="B398" t="s">
+        <v>795</v>
+      </c>
+      <c r="C398" t="s">
+        <v>794</v>
+      </c>
+      <c r="D398" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4">
+      <c r="A399" t="s">
+        <v>796</v>
+      </c>
+      <c r="B399" t="s">
+        <v>797</v>
+      </c>
+      <c r="C399" t="s">
+        <v>796</v>
+      </c>
+      <c r="D399" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4">
+      <c r="A400" t="s">
+        <v>798</v>
+      </c>
+      <c r="B400" t="s">
+        <v>799</v>
+      </c>
+      <c r="C400" t="s">
+        <v>798</v>
+      </c>
+      <c r="D400" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4">
+      <c r="A401" t="s">
+        <v>800</v>
+      </c>
+      <c r="B401" t="s">
+        <v>801</v>
+      </c>
+      <c r="C401" t="s">
+        <v>800</v>
+      </c>
+      <c r="D401" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4">
+      <c r="A402" t="s">
+        <v>802</v>
+      </c>
+      <c r="B402" t="s">
+        <v>803</v>
+      </c>
+      <c r="C402" t="s">
+        <v>802</v>
+      </c>
+      <c r="D402" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4">
+      <c r="A403" t="s">
+        <v>804</v>
+      </c>
+      <c r="B403" t="s">
+        <v>805</v>
+      </c>
+      <c r="C403" t="s">
+        <v>804</v>
+      </c>
+      <c r="D403" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4">
+      <c r="A404" t="s">
+        <v>806</v>
+      </c>
+      <c r="B404" t="s">
+        <v>807</v>
+      </c>
+      <c r="C404" t="s">
+        <v>806</v>
+      </c>
+      <c r="D404" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4">
+      <c r="A405" t="s">
+        <v>808</v>
+      </c>
+      <c r="B405" t="s">
+        <v>809</v>
+      </c>
+      <c r="C405" t="s">
+        <v>808</v>
+      </c>
+      <c r="D405" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4">
+      <c r="A406" t="s">
+        <v>810</v>
+      </c>
+      <c r="B406" t="s">
+        <v>811</v>
+      </c>
+      <c r="C406" t="s">
+        <v>810</v>
+      </c>
+      <c r="D406" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4">
+      <c r="A407" t="s">
+        <v>812</v>
+      </c>
+      <c r="B407" t="s">
+        <v>813</v>
+      </c>
+      <c r="C407" t="s">
+        <v>812</v>
+      </c>
+      <c r="D407" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4">
+      <c r="A408" t="s">
+        <v>814</v>
+      </c>
+      <c r="B408" t="s">
+        <v>815</v>
+      </c>
+      <c r="C408" t="s">
+        <v>814</v>
+      </c>
+      <c r="D408" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4">
+      <c r="A409" t="s">
+        <v>816</v>
+      </c>
+      <c r="B409" t="s">
+        <v>817</v>
+      </c>
+      <c r="C409" t="s">
+        <v>816</v>
+      </c>
+      <c r="D409" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4">
+      <c r="A410" t="s">
+        <v>818</v>
+      </c>
+      <c r="B410" t="s">
+        <v>819</v>
+      </c>
+      <c r="C410" t="s">
+        <v>818</v>
+      </c>
+      <c r="D410" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4">
+      <c r="A411" t="s">
+        <v>820</v>
+      </c>
+      <c r="B411" t="s">
+        <v>821</v>
+      </c>
+      <c r="C411" t="s">
+        <v>820</v>
+      </c>
+      <c r="D411" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4">
+      <c r="A412" t="s">
+        <v>822</v>
+      </c>
+      <c r="B412" t="s">
+        <v>823</v>
+      </c>
+      <c r="C412" t="s">
+        <v>822</v>
+      </c>
+      <c r="D412" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4">
+      <c r="A413" t="s">
+        <v>824</v>
+      </c>
+      <c r="B413" t="s">
+        <v>825</v>
+      </c>
+      <c r="C413" t="s">
+        <v>824</v>
+      </c>
+      <c r="D413" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4">
+      <c r="A414" t="s">
+        <v>826</v>
+      </c>
+      <c r="B414" t="s">
+        <v>827</v>
+      </c>
+      <c r="C414" t="s">
+        <v>826</v>
+      </c>
+      <c r="D414" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4">
+      <c r="A415" t="s">
+        <v>828</v>
+      </c>
+      <c r="B415" t="s">
+        <v>829</v>
+      </c>
+      <c r="C415" t="s">
+        <v>828</v>
+      </c>
+      <c r="D415" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4">
+      <c r="A416" t="s">
+        <v>830</v>
+      </c>
+      <c r="B416" t="s">
+        <v>831</v>
+      </c>
+      <c r="C416" t="s">
+        <v>830</v>
+      </c>
+      <c r="D416" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4">
+      <c r="A417" t="s">
+        <v>832</v>
+      </c>
+      <c r="B417" t="s">
+        <v>833</v>
+      </c>
+      <c r="C417" t="s">
+        <v>832</v>
+      </c>
+      <c r="D417" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4">
+      <c r="A418" t="s">
+        <v>834</v>
+      </c>
+      <c r="B418" t="s">
+        <v>835</v>
+      </c>
+      <c r="C418" t="s">
+        <v>834</v>
+      </c>
+      <c r="D418" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4">
+      <c r="A419" t="s">
+        <v>836</v>
+      </c>
+      <c r="B419" t="s">
+        <v>837</v>
+      </c>
+      <c r="C419" t="s">
+        <v>836</v>
+      </c>
+      <c r="D419" t="s">
+        <v>837</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D419"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="A242" sqref="A242"/>
     </sheetView>
   </sheetViews>
@@ -21059,7 +26957,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C440"/>
   <sheetViews>
@@ -25923,7 +31821,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B96"/>
   <sheetViews>
@@ -26717,11 +32615,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>

--- a/tools/categories/categorymap.xlsx
+++ b/tools/categories/categorymap.xlsx
@@ -5,23 +5,25 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Aircandi\Proxibase\tools\categories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Proxibase\tools\categories\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4395" yWindow="285" windowWidth="27495" windowHeight="17880" tabRatio="654" activeTab="7"/>
+    <workbookView xWindow="4395" yWindow="285" windowWidth="27495" windowHeight="17880" tabRatio="654" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="map_candi_candi" sheetId="8" r:id="rId1"/>
     <sheet name="map_factual_candi" sheetId="1" r:id="rId2"/>
     <sheet name="map_google_candi" sheetId="6" r:id="rId3"/>
     <sheet name="map_foursquare_candi" sheetId="9" r:id="rId4"/>
-    <sheet name="foursquare" sheetId="3" r:id="rId5"/>
-    <sheet name="factual" sheetId="4" r:id="rId6"/>
-    <sheet name="google" sheetId="5" r:id="rId7"/>
-    <sheet name="candi" sheetId="7" r:id="rId8"/>
+    <sheet name="map_patches_candi" sheetId="10" r:id="rId5"/>
+    <sheet name="foursquare" sheetId="3" r:id="rId6"/>
+    <sheet name="factual" sheetId="4" r:id="rId7"/>
+    <sheet name="google" sheetId="5" r:id="rId8"/>
+    <sheet name="candi" sheetId="7" r:id="rId9"/>
+    <sheet name="patches" sheetId="11" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="130407" concurrentCalc="0"/>
+  <calcPr calcId="130407"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6677" uniqueCount="1579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7182" uniqueCount="1603">
   <si>
     <t>Shopping</t>
   </si>
@@ -4790,13 +4792,97 @@
   </si>
   <si>
     <t>Home</t>
+  </si>
+  <si>
+    <t>Party</t>
+  </si>
+  <si>
+    <t>Pool Party</t>
+  </si>
+  <si>
+    <t>Birthday Party</t>
+  </si>
+  <si>
+    <t>Holiday Party</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>Concert</t>
+  </si>
+  <si>
+    <t>Sports</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Interest</t>
+  </si>
+  <si>
+    <t>Birthday Parties (adult or children)</t>
+  </si>
+  <si>
+    <t>Theme Parties</t>
+  </si>
+  <si>
+    <t>Holiday Parties</t>
+  </si>
+  <si>
+    <t>Anniversaries</t>
+  </si>
+  <si>
+    <t>Retirements</t>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>weet Sixteen</t>
+    </r>
+  </si>
+  <si>
+    <t>Family Reunions</t>
+  </si>
+  <si>
+    <t>Fundraisers</t>
+  </si>
+  <si>
+    <t>Bachelor/Bachelorette Parties</t>
+  </si>
+  <si>
+    <t>Bridal Showers</t>
+  </si>
+  <si>
+    <t>Baby Showers</t>
+  </si>
+  <si>
+    <t>Cocktail Parties</t>
+  </si>
+  <si>
+    <t>Casino Party</t>
+  </si>
+  <si>
+    <t>Sleep Overs</t>
+  </si>
+  <si>
+    <t>Pool Parties</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4847,6 +4933,13 @@
       <sz val="13"/>
       <color indexed="63"/>
       <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -5223,7 +5316,7 @@
   <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B25" sqref="A1:XFD1048576"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6180,12 +6273,825 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L51"/>
+  <sheetViews>
+    <sheetView showRuler="0" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" t="s">
+        <v>210</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1583</v>
+      </c>
+      <c r="K8" t="s">
+        <v>1579</v>
+      </c>
+      <c r="L8" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" t="s">
+        <v>210</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1583</v>
+      </c>
+      <c r="K9" t="s">
+        <v>1579</v>
+      </c>
+      <c r="L9" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" t="s">
+        <v>217</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" t="s">
+        <v>210</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1583</v>
+      </c>
+      <c r="K10" t="s">
+        <v>1579</v>
+      </c>
+      <c r="L10" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s">
+        <v>218</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" t="s">
+        <v>210</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1583</v>
+      </c>
+      <c r="K11" t="s">
+        <v>1584</v>
+      </c>
+      <c r="L11" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" t="s">
+        <v>210</v>
+      </c>
+      <c r="K12" t="s">
+        <v>1585</v>
+      </c>
+      <c r="L12" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" t="s">
+        <v>210</v>
+      </c>
+      <c r="K13" t="s">
+        <v>1586</v>
+      </c>
+      <c r="L13" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" t="s">
+        <v>210</v>
+      </c>
+      <c r="K14" t="s">
+        <v>1587</v>
+      </c>
+      <c r="L14" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
+        <v>210</v>
+      </c>
+      <c r="L15" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" t="s">
+        <v>210</v>
+      </c>
+      <c r="L16" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" t="s">
+        <v>210</v>
+      </c>
+      <c r="L17" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" t="s">
+        <v>210</v>
+      </c>
+      <c r="L18" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" t="s">
+        <v>210</v>
+      </c>
+      <c r="L19" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" t="s">
+        <v>210</v>
+      </c>
+      <c r="L20" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" t="s">
+        <v>210</v>
+      </c>
+      <c r="L21" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" t="s">
+        <v>210</v>
+      </c>
+      <c r="L22" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" t="s">
+        <v>210</v>
+      </c>
+      <c r="L23" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" t="s">
+        <v>210</v>
+      </c>
+      <c r="L24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" t="s">
+        <v>210</v>
+      </c>
+      <c r="L25" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" t="s">
+        <v>210</v>
+      </c>
+      <c r="L26" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="16.5">
+      <c r="A32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="16.5">
+      <c r="A33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C33" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="16.5">
+      <c r="A34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="16.5">
+      <c r="A35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="16.5">
+      <c r="A36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="16.5">
+      <c r="A37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="16.5">
+      <c r="A38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="16.5">
+      <c r="A39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="16.5">
+      <c r="A40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" t="s">
+        <v>114</v>
+      </c>
+      <c r="D40" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="16.5">
+      <c r="A41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" t="s">
+        <v>114</v>
+      </c>
+      <c r="D41" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="16.5">
+      <c r="A42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="16.5">
+      <c r="A43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" t="s">
+        <v>114</v>
+      </c>
+      <c r="D43" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="16.5">
+      <c r="A44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C44" t="s">
+        <v>114</v>
+      </c>
+      <c r="D44" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="16.5">
+      <c r="A45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C45" t="s">
+        <v>114</v>
+      </c>
+      <c r="D45" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="16.5">
+      <c r="A46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C46" t="s">
+        <v>114</v>
+      </c>
+      <c r="D46" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="16.5">
+      <c r="A47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>114</v>
+      </c>
+      <c r="D47" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="16.5">
+      <c r="A48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>114</v>
+      </c>
+      <c r="D48" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="16.5">
+      <c r="A49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>114</v>
+      </c>
+      <c r="D49" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="16.5">
+      <c r="A50" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>114</v>
+      </c>
+      <c r="D50" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="16.5">
+      <c r="A51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C51" t="s">
+        <v>114</v>
+      </c>
+      <c r="D51" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E439"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -13677,7 +14583,7 @@
   <dimension ref="A1:E96"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
@@ -21226,10 +22132,967 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E55"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>981</v>
+      </c>
+      <c r="D2" t="s">
+        <v>982</v>
+      </c>
+      <c r="E2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E9" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" t="s">
+        <v>217</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E10" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s">
+        <v>218</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E11" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E12" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E13" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E14" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E15" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E16" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E17" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E18" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E20" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E21" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E22" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E23" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E24" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E25" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E26" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E27" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E28" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E29" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E30" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E31" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
+        <v>981</v>
+      </c>
+      <c r="D32" t="s">
+        <v>982</v>
+      </c>
+      <c r="E32" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" t="s">
+        <v>981</v>
+      </c>
+      <c r="D33" t="s">
+        <v>982</v>
+      </c>
+      <c r="E33" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" t="s">
+        <v>981</v>
+      </c>
+      <c r="D34" t="s">
+        <v>982</v>
+      </c>
+      <c r="E34" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" t="s">
+        <v>981</v>
+      </c>
+      <c r="D35" t="s">
+        <v>982</v>
+      </c>
+      <c r="E35" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" t="s">
+        <v>547</v>
+      </c>
+      <c r="C36" t="s">
+        <v>981</v>
+      </c>
+      <c r="D36" t="s">
+        <v>982</v>
+      </c>
+      <c r="E36" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" t="s">
+        <v>981</v>
+      </c>
+      <c r="D37" t="s">
+        <v>982</v>
+      </c>
+      <c r="E37" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" t="s">
+        <v>791</v>
+      </c>
+      <c r="C38" t="s">
+        <v>981</v>
+      </c>
+      <c r="D38" t="s">
+        <v>982</v>
+      </c>
+      <c r="E38" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" t="s">
+        <v>981</v>
+      </c>
+      <c r="D39" t="s">
+        <v>982</v>
+      </c>
+      <c r="E39" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" t="s">
+        <v>981</v>
+      </c>
+      <c r="D40" t="s">
+        <v>982</v>
+      </c>
+      <c r="E40" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>103</v>
+      </c>
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" t="s">
+        <v>981</v>
+      </c>
+      <c r="D41" t="s">
+        <v>982</v>
+      </c>
+      <c r="E41" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>104</v>
+      </c>
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" t="s">
+        <v>981</v>
+      </c>
+      <c r="D42" t="s">
+        <v>982</v>
+      </c>
+      <c r="E42" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>105</v>
+      </c>
+      <c r="B43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" t="s">
+        <v>981</v>
+      </c>
+      <c r="D43" t="s">
+        <v>982</v>
+      </c>
+      <c r="E43" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" t="s">
+        <v>981</v>
+      </c>
+      <c r="D44" t="s">
+        <v>982</v>
+      </c>
+      <c r="E44" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>107</v>
+      </c>
+      <c r="B45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" t="s">
+        <v>981</v>
+      </c>
+      <c r="D45" t="s">
+        <v>982</v>
+      </c>
+      <c r="E45" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" t="s">
+        <v>981</v>
+      </c>
+      <c r="D46" t="s">
+        <v>982</v>
+      </c>
+      <c r="E46" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" t="s">
+        <v>576</v>
+      </c>
+      <c r="C47" t="s">
+        <v>981</v>
+      </c>
+      <c r="D47" t="s">
+        <v>982</v>
+      </c>
+      <c r="E47" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" t="s">
+        <v>981</v>
+      </c>
+      <c r="D48" t="s">
+        <v>982</v>
+      </c>
+      <c r="E48" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>108</v>
+      </c>
+      <c r="B49" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" t="s">
+        <v>981</v>
+      </c>
+      <c r="D49" t="s">
+        <v>982</v>
+      </c>
+      <c r="E49" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" t="s">
+        <v>981</v>
+      </c>
+      <c r="D50" t="s">
+        <v>982</v>
+      </c>
+      <c r="E50" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>110</v>
+      </c>
+      <c r="B51" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" t="s">
+        <v>981</v>
+      </c>
+      <c r="D51" t="s">
+        <v>982</v>
+      </c>
+      <c r="E51" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>111</v>
+      </c>
+      <c r="B52" t="s">
+        <v>396</v>
+      </c>
+      <c r="C52" t="s">
+        <v>981</v>
+      </c>
+      <c r="D52" t="s">
+        <v>982</v>
+      </c>
+      <c r="E52" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>112</v>
+      </c>
+      <c r="B53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" t="s">
+        <v>981</v>
+      </c>
+      <c r="D53" t="s">
+        <v>982</v>
+      </c>
+      <c r="E53" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" t="s">
+        <v>550</v>
+      </c>
+      <c r="C54" t="s">
+        <v>981</v>
+      </c>
+      <c r="D54" t="s">
+        <v>982</v>
+      </c>
+      <c r="E54" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" t="s">
+        <v>981</v>
+      </c>
+      <c r="D55" t="s">
+        <v>982</v>
+      </c>
+      <c r="E55" t="s">
+        <v>246</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D419"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A261" workbookViewId="0">
-      <selection activeCell="B304" sqref="B304"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -27063,7 +28926,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C440"/>
   <sheetViews>
@@ -31927,7 +33790,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B96"/>
   <sheetViews>
@@ -32720,11 +34583,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A8" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
